--- a/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="214">
   <si>
     <t>522 x 240 x 240</t>
   </si>
@@ -528,51 +528,6 @@
     <t>Info</t>
   </si>
   <si>
-    <t>GP 12-26</t>
-  </si>
-  <si>
-    <t>GP 12-18</t>
-  </si>
-  <si>
-    <t>GP 12-12</t>
-  </si>
-  <si>
-    <t>GP 12-7,2</t>
-  </si>
-  <si>
-    <t>GP 12-7</t>
-  </si>
-  <si>
-    <t>GP 12-5</t>
-  </si>
-  <si>
-    <t>GP 12-4</t>
-  </si>
-  <si>
-    <t>GP 12-3,3</t>
-  </si>
-  <si>
-    <t>GP 12-2,3</t>
-  </si>
-  <si>
-    <t>GP 12-1,3</t>
-  </si>
-  <si>
-    <t>GP 6-12</t>
-  </si>
-  <si>
-    <t>GP 6-7</t>
-  </si>
-  <si>
-    <t>GP 6-4,5</t>
-  </si>
-  <si>
-    <t>GP 6-3,3</t>
-  </si>
-  <si>
-    <t>GP 6-1,3</t>
-  </si>
-  <si>
     <t>97 x 25 x 56</t>
   </si>
   <si>
@@ -615,48 +570,6 @@
     <t>Ventura</t>
   </si>
   <si>
-    <t>GPL 12-230</t>
-  </si>
-  <si>
-    <t>GPL 12-200</t>
-  </si>
-  <si>
-    <t>GPL 12-150</t>
-  </si>
-  <si>
-    <t>GPL 12-134</t>
-  </si>
-  <si>
-    <t>GPL 12-120</t>
-  </si>
-  <si>
-    <t>GPL 12-100</t>
-  </si>
-  <si>
-    <t>GPL 12-90</t>
-  </si>
-  <si>
-    <t>GPL 12-80</t>
-  </si>
-  <si>
-    <t>GPL 12-70</t>
-  </si>
-  <si>
-    <t>GPL 12-65</t>
-  </si>
-  <si>
-    <t>GPL 12-55</t>
-  </si>
-  <si>
-    <t>GPL 12-45</t>
-  </si>
-  <si>
-    <t>GPL 12-40</t>
-  </si>
-  <si>
-    <t>GPL 12-33</t>
-  </si>
-  <si>
     <t>195 x 129 x 179</t>
   </si>
   <si>
@@ -690,33 +603,12 @@
     <t>520 x 268 x 241</t>
   </si>
   <si>
-    <t>HR 1221W(5Ah)</t>
-  </si>
-  <si>
-    <t>HR 1225W(5Ah)</t>
-  </si>
-  <si>
-    <t>HR 1234W(9Ah)</t>
-  </si>
-  <si>
     <t>151 x 51 x 100</t>
   </si>
   <si>
     <t>151 x 65 x 100</t>
   </si>
   <si>
-    <t>FT 12-150</t>
-  </si>
-  <si>
-    <t>FT 12-120 (125Ah)</t>
-  </si>
-  <si>
-    <t>FT 12-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FT 12-50 </t>
-  </si>
-  <si>
     <t>277 x 106 x 222</t>
   </si>
   <si>
@@ -835,6 +727,207 @@
   </si>
   <si>
     <t>Ventura FT 12-150</t>
+  </si>
+  <si>
+    <t>BP 1,2-6</t>
+  </si>
+  <si>
+    <t>BP 4-6</t>
+  </si>
+  <si>
+    <t>BP 12-6</t>
+  </si>
+  <si>
+    <t>BP 3-12</t>
+  </si>
+  <si>
+    <t>BP 4-12</t>
+  </si>
+  <si>
+    <t>BP 5-12</t>
+  </si>
+  <si>
+    <t>BP 7,2-12</t>
+  </si>
+  <si>
+    <t>BP 12-12</t>
+  </si>
+  <si>
+    <t>BP 17-12</t>
+  </si>
+  <si>
+    <t>BP 20-12</t>
+  </si>
+  <si>
+    <t>BP 26-12</t>
+  </si>
+  <si>
+    <t>BP 33-12</t>
+  </si>
+  <si>
+    <t>BP 40-12</t>
+  </si>
+  <si>
+    <t>BP 65-12</t>
+  </si>
+  <si>
+    <t>BP 90-12</t>
+  </si>
+  <si>
+    <t>BP 100-12</t>
+  </si>
+  <si>
+    <t>BP 120-12</t>
+  </si>
+  <si>
+    <t>BP 160-12</t>
+  </si>
+  <si>
+    <t>BP 200-12</t>
+  </si>
+  <si>
+    <t>BP 230-12</t>
+  </si>
+  <si>
+    <t>SH 4,5-12</t>
+  </si>
+  <si>
+    <t>BP X7-12</t>
+  </si>
+  <si>
+    <t>HR 5,8-12</t>
+  </si>
+  <si>
+    <t>HR 6-12</t>
+  </si>
+  <si>
+    <t>HR 1234W</t>
+  </si>
+  <si>
+    <t>HR 15-12</t>
+  </si>
+  <si>
+    <t>HR 22-12</t>
+  </si>
+  <si>
+    <t>HR 33-12</t>
+  </si>
+  <si>
+    <t>HR 40-12</t>
+  </si>
+  <si>
+    <t>HR 50-12</t>
+  </si>
+  <si>
+    <t>HR 75-12</t>
+  </si>
+  <si>
+    <t>MPL 55-12</t>
+  </si>
+  <si>
+    <t>MPL 80-12</t>
+  </si>
+  <si>
+    <t>MPL 90-12</t>
+  </si>
+  <si>
+    <t>MPL 110-12</t>
+  </si>
+  <si>
+    <t>EB 12-12</t>
+  </si>
+  <si>
+    <t>EB 20-12</t>
+  </si>
+  <si>
+    <t>EB 50-12</t>
+  </si>
+  <si>
+    <t>FTB 100-12</t>
+  </si>
+  <si>
+    <t>FTB 125-12</t>
+  </si>
+  <si>
+    <t>FTB 155-12</t>
+  </si>
+  <si>
+    <t>BС 7-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 12-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 17-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 28-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 42-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 65-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BС 100-12 </t>
+  </si>
+  <si>
+    <t>70 x 47 x 106</t>
+  </si>
+  <si>
+    <t>329 x 172 x 238</t>
+  </si>
+  <si>
+    <t>407 x 173 x 239</t>
+  </si>
+  <si>
+    <t>483 x 171 x 240</t>
+  </si>
+  <si>
+    <t>522 x 202 x 240</t>
+  </si>
+  <si>
+    <t>228 x 139 x 224</t>
+  </si>
+  <si>
+    <t>261 x 173 x 224</t>
+  </si>
+  <si>
+    <t>306 x 173 x 230</t>
+  </si>
+  <si>
+    <t>330 x 173 x 241</t>
+  </si>
+  <si>
+    <t>394 x 110 x 285</t>
+  </si>
+  <si>
+    <t>560 x 125 x 255</t>
+  </si>
+  <si>
+    <t>560 x 125 x 290</t>
+  </si>
+  <si>
+    <t>151 x 65 x 94</t>
+  </si>
+  <si>
+    <t>151 x 98 x 94</t>
+  </si>
+  <si>
+    <t>175 x 166 x 123</t>
+  </si>
+  <si>
+    <t>329 x 172 x 215</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ventura.jpg</t>
+  </si>
+  <si>
+    <t>BB.jpg</t>
   </si>
 </sst>
 </file>
@@ -1526,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2409,7 +2502,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B24">
         <v>5.86</v>
@@ -2418,10 +2511,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2433,7 +2526,7 @@
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="M24">
         <v>0.31</v>
@@ -2447,7 +2540,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="B25">
         <v>9.01</v>
@@ -2456,11 +2549,11 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
-        <v>108</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
@@ -2471,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="M25">
         <v>0.66</v>
@@ -2485,7 +2578,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>7.96</v>
@@ -2494,10 +2587,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2509,7 +2602,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M26">
         <v>0.75</v>
@@ -2523,7 +2616,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="B27">
         <v>13.21</v>
@@ -2532,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2547,7 +2640,7 @@
         <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="M27">
         <v>1.17</v>
@@ -2561,7 +2654,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B28">
         <v>20.11</v>
@@ -2570,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2585,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="L28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="M28">
         <v>1.85</v>
@@ -2599,7 +2692,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B29">
         <v>10.82</v>
@@ -2608,10 +2701,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2623,7 +2716,7 @@
         <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M29">
         <v>0.61</v>
@@ -2637,7 +2730,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="B30">
         <v>13.49</v>
@@ -2646,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2661,7 +2754,7 @@
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2675,7 +2768,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="B31">
         <v>16.04</v>
@@ -2684,22 +2777,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>212</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>12</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" t="s">
         <v>87</v>
-      </c>
-      <c r="F31" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>102</v>
       </c>
       <c r="M31">
         <v>1.3</v>
@@ -2713,7 +2806,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B32">
         <v>16.350000000000001</v>
@@ -2722,10 +2815,10 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2737,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M32">
         <v>1.4</v>
@@ -2751,7 +2844,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>18.899999999999999</v>
@@ -2760,10 +2853,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2775,7 +2868,7 @@
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M33">
         <v>1.7</v>
@@ -2789,7 +2882,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B34">
         <v>20.25</v>
@@ -2798,10 +2891,10 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2813,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M34">
         <v>2.2999999999999998</v>
@@ -2827,7 +2920,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B35">
         <v>21.32</v>
@@ -2836,10 +2929,10 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2851,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M35">
         <v>2.35</v>
@@ -2865,7 +2958,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B36">
         <v>39.01</v>
@@ -2874,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2889,7 +2982,7 @@
         <v>5</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M36">
         <v>3.7</v>
@@ -2903,7 +2996,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B37">
         <v>55.52</v>
@@ -2912,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -2927,7 +3020,7 @@
         <v>5</v>
       </c>
       <c r="L37" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="M37">
         <v>5.6</v>
@@ -2941,7 +3034,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B38">
         <v>78.040000000000006</v>
@@ -2950,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="F38" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -2965,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="M38">
         <v>8.4</v>
@@ -2979,7 +3072,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B39">
         <v>103.52</v>
@@ -2988,10 +3081,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3003,7 +3096,7 @@
         <v>5</v>
       </c>
       <c r="L39" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="M39">
         <v>10.5</v>
@@ -3017,7 +3110,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="B40">
         <v>135.04</v>
@@ -3026,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3041,7 +3134,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="M40">
         <v>13.8</v>
@@ -3055,7 +3148,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="B41">
         <v>147.06</v>
@@ -3064,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3079,7 +3172,7 @@
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="M41">
         <v>14</v>
@@ -3093,7 +3186,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B42">
         <v>180.06</v>
@@ -3102,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="F42" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3117,7 +3210,7 @@
         <v>5</v>
       </c>
       <c r="L42" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="M42">
         <v>17</v>
@@ -3131,7 +3224,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="B43">
         <v>210.07</v>
@@ -3140,10 +3233,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3155,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="L43" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="M43">
         <v>22</v>
@@ -3169,7 +3262,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="B44">
         <v>223.56</v>
@@ -3178,10 +3271,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3193,7 +3286,7 @@
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="M44">
         <v>22.8</v>
@@ -3207,7 +3300,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="B45">
         <v>231.08</v>
@@ -3216,10 +3309,10 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3231,7 +3324,7 @@
         <v>5</v>
       </c>
       <c r="L45" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="M45">
         <v>23.5</v>
@@ -3245,7 +3338,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="B46">
         <v>280.58</v>
@@ -3254,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>115</v>
+        <v>212</v>
       </c>
       <c r="F46" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3269,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="L46" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -3283,7 +3376,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>267.38</v>
@@ -3292,10 +3385,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="F47" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3307,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="M47">
         <v>32</v>
@@ -3321,7 +3414,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="B48">
         <v>343.62</v>
@@ -3330,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3359,7 +3452,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="B49">
         <v>381.12</v>
@@ -3368,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>212</v>
       </c>
       <c r="F49" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3383,7 +3476,7 @@
         <v>5</v>
       </c>
       <c r="L49" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="M49">
         <v>43</v>
@@ -3397,7 +3490,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="B50">
         <v>435.14</v>
@@ -3406,10 +3499,10 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>212</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3421,7 +3514,7 @@
         <v>5</v>
       </c>
       <c r="L50" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="M50">
         <v>45.5</v>
@@ -3435,7 +3528,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="B51">
         <v>528.16</v>
@@ -3444,10 +3537,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3459,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="L51" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="M51">
         <v>64</v>
@@ -3473,7 +3566,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="B52">
         <v>664.59</v>
@@ -3482,10 +3575,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3497,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="L52" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="M52">
         <v>72.5</v>
@@ -3511,7 +3604,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B53">
         <v>20.71</v>
@@ -3520,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3535,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="L53" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="M53">
         <v>1.8</v>
@@ -3549,7 +3642,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="B54">
         <v>22.05</v>
@@ -3558,10 +3651,10 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3573,7 +3666,7 @@
         <v>5</v>
       </c>
       <c r="L54" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M54">
         <v>1.9</v>
@@ -3587,7 +3680,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="B55">
         <v>27.31</v>
@@ -3596,10 +3689,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3611,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="L55" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="M55">
         <v>2.7</v>
@@ -3625,7 +3718,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="B56">
         <v>177.29</v>
@@ -3634,10 +3727,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3649,7 +3742,7 @@
         <v>5</v>
       </c>
       <c r="L56" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="M56">
         <v>17.3</v>
@@ -3663,7 +3756,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B57">
         <v>277.01</v>
@@ -3672,22 +3765,22 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="F57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>12</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57" t="s">
         <v>108</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>12</v>
-      </c>
-      <c r="K57">
-        <v>5</v>
-      </c>
-      <c r="L57" t="s">
-        <v>144</v>
       </c>
       <c r="M57">
         <v>29.4</v>
@@ -3701,7 +3794,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="B58">
         <v>339.33</v>
@@ -3710,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="F58" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3725,7 +3818,7 @@
         <v>5</v>
       </c>
       <c r="L58" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="M58">
         <v>36</v>
@@ -3739,7 +3832,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="B59">
         <v>427.98</v>
@@ -3748,10 +3841,10 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3763,7 +3856,7 @@
         <v>5</v>
       </c>
       <c r="L59" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="M59">
         <v>45.5</v>
@@ -3775,8 +3868,1833 @@
         <v>150</v>
       </c>
     </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" t="s">
+        <v>211</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>12</v>
+      </c>
+      <c r="K60">
+        <v>5</v>
+      </c>
+      <c r="L60" t="s">
+        <v>80</v>
+      </c>
+      <c r="M60">
+        <v>0.3</v>
+      </c>
+      <c r="R60">
+        <v>6</v>
+      </c>
+      <c r="S60">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61">
+        <v>11.68</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" t="s">
+        <v>211</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>12</v>
+      </c>
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61" t="s">
+        <v>195</v>
+      </c>
+      <c r="M61">
+        <v>0.85</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62">
+        <v>23.95</v>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" t="s">
+        <v>211</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62" t="s">
+        <v>84</v>
+      </c>
+      <c r="M62">
+        <v>1.98</v>
+      </c>
+      <c r="R62">
+        <v>6</v>
+      </c>
+      <c r="S62">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>13.02</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>213</v>
+      </c>
+      <c r="F63" t="s">
+        <v>211</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>12</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63" t="s">
+        <v>87</v>
+      </c>
+      <c r="M63">
+        <v>1.3</v>
+      </c>
+      <c r="R63">
+        <v>12</v>
+      </c>
+      <c r="S63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64">
+        <v>20.69</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F64" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>12</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64" t="s">
+        <v>88</v>
+      </c>
+      <c r="M64">
+        <v>1.67</v>
+      </c>
+      <c r="R64">
+        <v>12</v>
+      </c>
+      <c r="S64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65">
+        <v>21.74</v>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+      <c r="F65" t="s">
+        <v>211</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>12</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" t="s">
+        <v>88</v>
+      </c>
+      <c r="M65">
+        <v>1.8</v>
+      </c>
+      <c r="R65">
+        <v>12</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66">
+        <v>26.6</v>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>12</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66" t="s">
+        <v>89</v>
+      </c>
+      <c r="M66">
+        <v>2.54</v>
+      </c>
+      <c r="R66">
+        <v>12</v>
+      </c>
+      <c r="S66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67">
+        <v>47.04</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>213</v>
+      </c>
+      <c r="F67" t="s">
+        <v>211</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67" t="s">
+        <v>90</v>
+      </c>
+      <c r="M67">
+        <v>3.94</v>
+      </c>
+      <c r="R67">
+        <v>12</v>
+      </c>
+      <c r="S67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68">
+        <v>64.08</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>211</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>12</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68" t="s">
+        <v>91</v>
+      </c>
+      <c r="M68">
+        <v>6.15</v>
+      </c>
+      <c r="R68">
+        <v>12</v>
+      </c>
+      <c r="S68">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69">
+        <v>66.31</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" t="s">
+        <v>211</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>12</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69" t="s">
+        <v>91</v>
+      </c>
+      <c r="M69">
+        <v>6.35</v>
+      </c>
+      <c r="R69">
+        <v>12</v>
+      </c>
+      <c r="S69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70">
+        <v>95.72</v>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
+        <v>211</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>12</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70" t="s">
+        <v>92</v>
+      </c>
+      <c r="M70">
+        <v>9.4</v>
+      </c>
+      <c r="R70">
+        <v>12</v>
+      </c>
+      <c r="S70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71">
+        <v>119.06</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" t="s">
+        <v>211</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>12</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71">
+        <v>11.25</v>
+      </c>
+      <c r="R71">
+        <v>12</v>
+      </c>
+      <c r="S71">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72">
+        <v>152.11000000000001</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>213</v>
+      </c>
+      <c r="F72" t="s">
+        <v>211</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>12</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72" t="s">
+        <v>95</v>
+      </c>
+      <c r="M72">
+        <v>14.3</v>
+      </c>
+      <c r="R72">
+        <v>12</v>
+      </c>
+      <c r="S72">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73">
+        <v>241.3</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+      <c r="F73" t="s">
+        <v>211</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>12</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73" t="s">
+        <v>97</v>
+      </c>
+      <c r="M73">
+        <v>24.5</v>
+      </c>
+      <c r="R73">
+        <v>12</v>
+      </c>
+      <c r="S73">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74">
+        <v>326.89</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>213</v>
+      </c>
+      <c r="F74" t="s">
+        <v>211</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>12</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74" t="s">
+        <v>196</v>
+      </c>
+      <c r="M74">
+        <v>30.8</v>
+      </c>
+      <c r="R74">
+        <v>12</v>
+      </c>
+      <c r="S74">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75">
+        <v>329.71</v>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>213</v>
+      </c>
+      <c r="F75" t="s">
+        <v>211</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>12</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" t="s">
+        <v>196</v>
+      </c>
+      <c r="M75">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="R75">
+        <v>12</v>
+      </c>
+      <c r="S75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76">
+        <v>401.55</v>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" t="s">
+        <v>211</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76" t="s">
+        <v>197</v>
+      </c>
+      <c r="M76">
+        <v>39.5</v>
+      </c>
+      <c r="R76">
+        <v>12</v>
+      </c>
+      <c r="S76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77">
+        <v>542.24</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" t="s">
+        <v>211</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>12</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77" t="s">
+        <v>198</v>
+      </c>
+      <c r="M77">
+        <v>51.2</v>
+      </c>
+      <c r="R77">
+        <v>12</v>
+      </c>
+      <c r="S77">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78">
+        <v>666.67</v>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>213</v>
+      </c>
+      <c r="F78" t="s">
+        <v>211</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>12</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" t="s">
+        <v>199</v>
+      </c>
+      <c r="M78">
+        <v>61.5</v>
+      </c>
+      <c r="R78">
+        <v>12</v>
+      </c>
+      <c r="S78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79">
+        <v>705.47</v>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F79" t="s">
+        <v>211</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>12</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79" t="s">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>72.5</v>
+      </c>
+      <c r="R79">
+        <v>12</v>
+      </c>
+      <c r="S79">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>213</v>
+      </c>
+      <c r="F80" t="s">
+        <v>211</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>12</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80" t="s">
+        <v>88</v>
+      </c>
+      <c r="M80">
+        <v>1.53</v>
+      </c>
+      <c r="R80">
+        <v>12</v>
+      </c>
+      <c r="S80">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81">
+        <v>22.34</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>211</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>12</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81" t="s">
+        <v>106</v>
+      </c>
+      <c r="M81">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R81">
+        <v>12</v>
+      </c>
+      <c r="S81">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82">
+        <v>23.37</v>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>211</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>12</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82" t="s">
+        <v>88</v>
+      </c>
+      <c r="M82">
+        <v>1.88</v>
+      </c>
+      <c r="R82">
+        <v>12</v>
+      </c>
+      <c r="S82">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83">
+        <v>30.08</v>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" t="s">
+        <v>211</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>12</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83" t="s">
+        <v>105</v>
+      </c>
+      <c r="M83">
+        <v>2.1</v>
+      </c>
+      <c r="R83">
+        <v>12</v>
+      </c>
+      <c r="S83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84">
+        <v>29.67</v>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>213</v>
+      </c>
+      <c r="F84" t="s">
+        <v>211</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>12</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84" t="s">
+        <v>106</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="R84">
+        <v>12</v>
+      </c>
+      <c r="S84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85">
+        <v>54.04</v>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" t="s">
+        <v>211</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>12</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85" t="s">
+        <v>90</v>
+      </c>
+      <c r="M85">
+        <v>4.2</v>
+      </c>
+      <c r="R85">
+        <v>12</v>
+      </c>
+      <c r="S85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86">
+        <v>81.180000000000007</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>213</v>
+      </c>
+      <c r="F86" t="s">
+        <v>211</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>12</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86" t="s">
+        <v>91</v>
+      </c>
+      <c r="M86">
+        <v>6.5</v>
+      </c>
+      <c r="R86">
+        <v>12</v>
+      </c>
+      <c r="S86">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87">
+        <v>119.73</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>211</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>12</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87" t="s">
+        <v>92</v>
+      </c>
+      <c r="M87">
+        <v>10</v>
+      </c>
+      <c r="R87">
+        <v>12</v>
+      </c>
+      <c r="S87">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88">
+        <v>151.78</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>211</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>12</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+      <c r="L88" t="s">
+        <v>94</v>
+      </c>
+      <c r="M88">
+        <v>12.1</v>
+      </c>
+      <c r="R88">
+        <v>12</v>
+      </c>
+      <c r="S88">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89">
+        <v>181.77</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>211</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>12</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89" t="s">
+        <v>95</v>
+      </c>
+      <c r="M89">
+        <v>15.3</v>
+      </c>
+      <c r="R89">
+        <v>12</v>
+      </c>
+      <c r="S89">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90">
+        <v>244.98</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" t="s">
+        <v>211</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>12</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="L90" t="s">
+        <v>97</v>
+      </c>
+      <c r="M90">
+        <v>24.75</v>
+      </c>
+      <c r="R90">
+        <v>12</v>
+      </c>
+      <c r="S90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91">
+        <v>243.14</v>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" t="s">
+        <v>211</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>12</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91" t="s">
+        <v>200</v>
+      </c>
+      <c r="M91">
+        <v>17.8</v>
+      </c>
+      <c r="R91">
+        <v>12</v>
+      </c>
+      <c r="S91">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92">
+        <v>283.44</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s">
+        <v>211</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>12</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92" t="s">
+        <v>201</v>
+      </c>
+      <c r="M92">
+        <v>26</v>
+      </c>
+      <c r="R92">
+        <v>12</v>
+      </c>
+      <c r="S92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93">
+        <v>340.64</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>213</v>
+      </c>
+      <c r="F93" t="s">
+        <v>211</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93" t="s">
+        <v>202</v>
+      </c>
+      <c r="M93">
+        <v>29.8</v>
+      </c>
+      <c r="R93">
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94">
+        <v>381.82</v>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>213</v>
+      </c>
+      <c r="F94" t="s">
+        <v>211</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>12</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94" t="s">
+        <v>203</v>
+      </c>
+      <c r="M94">
+        <v>35</v>
+      </c>
+      <c r="R94">
+        <v>12</v>
+      </c>
+      <c r="S94">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95">
+        <v>55.26</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>213</v>
+      </c>
+      <c r="F95" t="s">
+        <v>211</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>12</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95" t="s">
+        <v>90</v>
+      </c>
+      <c r="M95">
+        <v>4.3</v>
+      </c>
+      <c r="R95">
+        <v>12</v>
+      </c>
+      <c r="S95">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96">
+        <v>77.36</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" t="s">
+        <v>211</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>12</v>
+      </c>
+      <c r="K96">
+        <v>5</v>
+      </c>
+      <c r="L96" t="s">
+        <v>91</v>
+      </c>
+      <c r="M96">
+        <v>6.45</v>
+      </c>
+      <c r="R96">
+        <v>12</v>
+      </c>
+      <c r="S96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97">
+        <v>169.46</v>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" t="s">
+        <v>211</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>12</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97">
+        <v>16.5</v>
+      </c>
+      <c r="R97">
+        <v>12</v>
+      </c>
+      <c r="S97">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>185</v>
+      </c>
+      <c r="B98">
+        <v>329.71</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>213</v>
+      </c>
+      <c r="F98" t="s">
+        <v>211</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>12</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98" t="s">
+        <v>204</v>
+      </c>
+      <c r="M98">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="R98">
+        <v>12</v>
+      </c>
+      <c r="S98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99">
+        <v>418.13</v>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>213</v>
+      </c>
+      <c r="F99" t="s">
+        <v>211</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>12</v>
+      </c>
+      <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99" t="s">
+        <v>205</v>
+      </c>
+      <c r="M99">
+        <v>46.4</v>
+      </c>
+      <c r="R99">
+        <v>12</v>
+      </c>
+      <c r="S99">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100">
+        <v>552.59</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>213</v>
+      </c>
+      <c r="F100" t="s">
+        <v>211</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>12</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100" t="s">
+        <v>206</v>
+      </c>
+      <c r="M100">
+        <v>55.4</v>
+      </c>
+      <c r="R100">
+        <v>12</v>
+      </c>
+      <c r="S100">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101">
+        <v>21.07</v>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>213</v>
+      </c>
+      <c r="F101" t="s">
+        <v>211</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>12</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101" t="s">
+        <v>207</v>
+      </c>
+      <c r="M101">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R101">
+        <v>12</v>
+      </c>
+      <c r="S101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102">
+        <v>44.21</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>213</v>
+      </c>
+      <c r="F102" t="s">
+        <v>211</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>12</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102" t="s">
+        <v>208</v>
+      </c>
+      <c r="M102">
+        <v>3.35</v>
+      </c>
+      <c r="R102">
+        <v>12</v>
+      </c>
+      <c r="S102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103">
+        <v>61.06</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>213</v>
+      </c>
+      <c r="F103" t="s">
+        <v>211</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>12</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103" t="s">
+        <v>91</v>
+      </c>
+      <c r="M103">
+        <v>5.62</v>
+      </c>
+      <c r="R103">
+        <v>12</v>
+      </c>
+      <c r="S103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104">
+        <v>88.41</v>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>213</v>
+      </c>
+      <c r="F104" t="s">
+        <v>211</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>12</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104" t="s">
+        <v>209</v>
+      </c>
+      <c r="M104">
+        <v>7.9</v>
+      </c>
+      <c r="R104">
+        <v>12</v>
+      </c>
+      <c r="S104">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105">
+        <v>142.57</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>213</v>
+      </c>
+      <c r="F105" t="s">
+        <v>211</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>12</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105" t="s">
+        <v>95</v>
+      </c>
+      <c r="M105">
+        <v>12.5</v>
+      </c>
+      <c r="R105">
+        <v>12</v>
+      </c>
+      <c r="S105">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>193</v>
+      </c>
+      <c r="B106">
+        <v>217.35</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>213</v>
+      </c>
+      <c r="F106" t="s">
+        <v>211</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>12</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106" t="s">
+        <v>97</v>
+      </c>
+      <c r="M106">
+        <v>20</v>
+      </c>
+      <c r="R106">
+        <v>12</v>
+      </c>
+      <c r="S106">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107">
+        <v>302.08</v>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>213</v>
+      </c>
+      <c r="F107" t="s">
+        <v>211</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>12</v>
+      </c>
+      <c r="K107">
+        <v>5</v>
+      </c>
+      <c r="L107" t="s">
+        <v>210</v>
+      </c>
+      <c r="M107">
+        <v>28.5</v>
+      </c>
+      <c r="R107">
+        <v>12</v>
+      </c>
+      <c r="S107">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
   <si>
     <t>522 x 240 x 240</t>
   </si>
@@ -922,12 +922,6 @@
   </si>
   <si>
     <t>BB</t>
-  </si>
-  <si>
-    <t>Ventura.jpg</t>
-  </si>
-  <si>
-    <t>BB.jpg</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
         <v>93</v>
@@ -2549,7 +2543,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F25" t="s">
         <v>93</v>
@@ -2587,7 +2581,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>93</v>
@@ -2625,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F27" t="s">
         <v>93</v>
@@ -2663,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
         <v>93</v>
@@ -2701,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
         <v>93</v>
@@ -2739,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
         <v>93</v>
@@ -2777,7 +2771,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F31" t="s">
         <v>93</v>
@@ -2815,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
         <v>93</v>
@@ -2853,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
         <v>93</v>
@@ -2891,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
         <v>93</v>
@@ -2929,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
         <v>93</v>
@@ -2967,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F36" t="s">
         <v>93</v>
@@ -3005,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F37" t="s">
         <v>93</v>
@@ -3043,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F38" t="s">
         <v>93</v>
@@ -3081,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>93</v>
@@ -3119,7 +3113,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
         <v>93</v>
@@ -3157,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
         <v>93</v>
@@ -3195,7 +3189,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F42" t="s">
         <v>93</v>
@@ -3233,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F43" t="s">
         <v>93</v>
@@ -3271,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>93</v>
@@ -3309,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F45" t="s">
         <v>93</v>
@@ -3347,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F46" t="s">
         <v>93</v>
@@ -3385,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F47" t="s">
         <v>93</v>
@@ -3423,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
         <v>93</v>
@@ -3461,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
         <v>93</v>
@@ -3499,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
         <v>93</v>
@@ -3537,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
         <v>93</v>
@@ -3575,7 +3569,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
         <v>93</v>
@@ -3613,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
         <v>93</v>
@@ -3651,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F54" t="s">
         <v>93</v>
@@ -3689,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F55" t="s">
         <v>93</v>
@@ -3727,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F56" t="s">
         <v>93</v>
@@ -3765,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F57" t="s">
         <v>93</v>
@@ -3803,7 +3797,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F58" t="s">
         <v>93</v>
@@ -3841,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="F59" t="s">
         <v>93</v>
@@ -3879,7 +3873,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
         <v>211</v>
@@ -3917,7 +3911,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
         <v>211</v>
@@ -3955,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
         <v>211</v>
@@ -3993,7 +3987,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
         <v>211</v>
@@ -4031,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
         <v>211</v>
@@ -4069,7 +4063,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
         <v>211</v>
@@ -4107,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
         <v>211</v>
@@ -4145,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
         <v>211</v>
@@ -4183,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F68" t="s">
         <v>211</v>
@@ -4221,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F69" t="s">
         <v>211</v>
@@ -4259,7 +4253,7 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
         <v>211</v>
@@ -4297,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
         <v>211</v>
@@ -4335,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" t="s">
         <v>211</v>
@@ -4373,7 +4367,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
         <v>211</v>
@@ -4411,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
         <v>211</v>
@@ -4449,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
         <v>211</v>
@@ -4487,7 +4481,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
         <v>211</v>
@@ -4525,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
         <v>211</v>
@@ -4563,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s">
         <v>211</v>
@@ -4601,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
         <v>211</v>
@@ -4639,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
         <v>211</v>
@@ -4677,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
         <v>211</v>
@@ -4715,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
         <v>211</v>
@@ -4753,7 +4747,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F83" t="s">
         <v>211</v>
@@ -4791,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
         <v>211</v>
@@ -4829,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F85" t="s">
         <v>211</v>
@@ -4867,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
         <v>211</v>
@@ -4905,7 +4899,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
         <v>211</v>
@@ -4943,7 +4937,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
         <v>211</v>
@@ -4981,7 +4975,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
         <v>211</v>
@@ -5019,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s">
         <v>211</v>
@@ -5057,7 +5051,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F91" t="s">
         <v>211</v>
@@ -5095,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F92" t="s">
         <v>211</v>
@@ -5133,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F93" t="s">
         <v>211</v>
@@ -5171,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F94" t="s">
         <v>211</v>
@@ -5209,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F95" t="s">
         <v>211</v>
@@ -5247,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F96" t="s">
         <v>211</v>
@@ -5285,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
         <v>211</v>
@@ -5323,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F98" t="s">
         <v>211</v>
@@ -5361,7 +5355,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F99" t="s">
         <v>211</v>
@@ -5399,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
         <v>211</v>
@@ -5437,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
         <v>211</v>
@@ -5475,7 +5469,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F102" t="s">
         <v>211</v>
@@ -5513,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
         <v>211</v>
@@ -5551,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F104" t="s">
         <v>211</v>
@@ -5589,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="E105" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F105" t="s">
         <v>211</v>
@@ -5627,7 +5621,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F106" t="s">
         <v>211</v>
@@ -5665,7 +5659,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
         <v>211</v>

--- a/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
@@ -513,9 +513,6 @@
     <t>Photo</t>
   </si>
   <si>
-    <t>IsAvailable</t>
-  </si>
-  <si>
     <t>Discount</t>
   </si>
   <si>
@@ -922,6 +919,9 @@
   </si>
   <si>
     <t>BB</t>
+  </si>
+  <si>
+    <t>Availability</t>
   </si>
 </sst>
 </file>
@@ -965,8 +965,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,28 +1619,29 @@
   <dimension ref="A1:S107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
         <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="E1" t="s">
         <v>74</v>
@@ -1676,7 +1680,7 @@
         <v>63</v>
       </c>
       <c r="Q1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
         <v>62</v>
@@ -1692,8 +1696,8 @@
       <c r="B2">
         <v>4.8</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1727,8 +1731,8 @@
       <c r="B3">
         <v>5.4</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>56</v>
@@ -1762,8 +1766,8 @@
       <c r="B4">
         <v>5.4</v>
       </c>
-      <c r="D4" t="b">
-        <v>1</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -1797,8 +1801,8 @@
       <c r="B5">
         <v>8.75</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>50</v>
@@ -1832,8 +1836,8 @@
       <c r="B6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -1864,8 +1868,8 @@
       <c r="B7">
         <v>14</v>
       </c>
-      <c r="D7" t="b">
-        <v>1</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>45</v>
@@ -1896,8 +1900,8 @@
       <c r="B8">
         <v>10.8</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>43</v>
@@ -1931,8 +1935,8 @@
       <c r="B9">
         <v>12.6</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -1969,8 +1973,8 @@
       <c r="B10">
         <v>14.8</v>
       </c>
-      <c r="D10" t="b">
-        <v>1</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -2007,8 +2011,8 @@
       <c r="B11">
         <v>17.399999999999999</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -2045,8 +2049,8 @@
       <c r="B12">
         <v>25.2</v>
       </c>
-      <c r="D12" t="b">
-        <v>1</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -2083,8 +2087,8 @@
       <c r="B13">
         <v>40.799999999999997</v>
       </c>
-      <c r="D13" t="b">
-        <v>1</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
@@ -2121,8 +2125,8 @@
       <c r="B14">
         <v>58</v>
       </c>
-      <c r="D14" t="b">
-        <v>1</v>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -2159,8 +2163,8 @@
       <c r="B15">
         <v>60</v>
       </c>
-      <c r="D15" t="b">
-        <v>1</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>25</v>
@@ -2197,8 +2201,8 @@
       <c r="B16">
         <v>156</v>
       </c>
-      <c r="D16" t="b">
-        <v>1</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
@@ -2235,8 +2239,8 @@
       <c r="B17">
         <v>132</v>
       </c>
-      <c r="D17" t="b">
-        <v>1</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -2273,8 +2277,8 @@
       <c r="B18">
         <v>186</v>
       </c>
-      <c r="D18" t="b">
-        <v>1</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -2311,8 +2315,8 @@
       <c r="B19">
         <v>252</v>
       </c>
-      <c r="D19" t="b">
-        <v>1</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -2349,8 +2353,8 @@
       <c r="B20">
         <v>198</v>
       </c>
-      <c r="D20" t="b">
-        <v>1</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -2387,8 +2391,8 @@
       <c r="B21">
         <v>240</v>
       </c>
-      <c r="D21" t="b">
-        <v>1</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -2425,8 +2429,8 @@
       <c r="B22">
         <v>270</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -2463,8 +2467,8 @@
       <c r="B23">
         <v>420</v>
       </c>
-      <c r="D23" t="b">
-        <v>1</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -2496,19 +2500,19 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24">
         <v>5.86</v>
       </c>
-      <c r="D24" t="b">
-        <v>1</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2520,7 +2524,7 @@
         <v>5</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24">
         <v>0.31</v>
@@ -2534,19 +2538,19 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B25">
         <v>9.01</v>
       </c>
-      <c r="D25" t="b">
-        <v>1</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2558,7 +2562,7 @@
         <v>5</v>
       </c>
       <c r="L25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M25">
         <v>0.66</v>
@@ -2572,19 +2576,19 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B26">
         <v>7.96</v>
       </c>
-      <c r="D26" t="b">
-        <v>1</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2596,7 +2600,7 @@
         <v>5</v>
       </c>
       <c r="L26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M26">
         <v>0.75</v>
@@ -2610,19 +2614,19 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>13.21</v>
       </c>
-      <c r="D27" t="b">
-        <v>1</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2634,7 +2638,7 @@
         <v>5</v>
       </c>
       <c r="L27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M27">
         <v>1.17</v>
@@ -2648,19 +2652,19 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28">
         <v>20.11</v>
       </c>
-      <c r="D28" t="b">
-        <v>1</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2672,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M28">
         <v>1.85</v>
@@ -2686,19 +2690,19 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>10.82</v>
       </c>
-      <c r="D29" t="b">
-        <v>1</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2710,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29">
         <v>0.61</v>
@@ -2724,19 +2728,19 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30">
         <v>13.49</v>
       </c>
-      <c r="D30" t="b">
-        <v>1</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2748,7 +2752,7 @@
         <v>5</v>
       </c>
       <c r="L30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -2762,19 +2766,19 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>16.04</v>
       </c>
-      <c r="D31" t="b">
-        <v>1</v>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2786,7 +2790,7 @@
         <v>5</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M31">
         <v>1.3</v>
@@ -2800,19 +2804,19 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B32">
         <v>16.350000000000001</v>
       </c>
-      <c r="D32" t="b">
-        <v>1</v>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2824,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32">
         <v>1.4</v>
@@ -2838,19 +2842,19 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B33">
         <v>18.899999999999999</v>
       </c>
-      <c r="D33" t="b">
-        <v>1</v>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2862,7 +2866,7 @@
         <v>5</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M33">
         <v>1.7</v>
@@ -2876,19 +2880,19 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B34">
         <v>20.25</v>
       </c>
-      <c r="D34" t="b">
-        <v>1</v>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2900,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="L34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M34">
         <v>2.2999999999999998</v>
@@ -2914,19 +2918,19 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35">
         <v>21.32</v>
       </c>
-      <c r="D35" t="b">
-        <v>1</v>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2938,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="L35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M35">
         <v>2.35</v>
@@ -2952,19 +2956,19 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36">
         <v>39.01</v>
       </c>
-      <c r="D36" t="b">
-        <v>1</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2976,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="L36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M36">
         <v>3.7</v>
@@ -2990,19 +2994,19 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37">
         <v>55.52</v>
       </c>
-      <c r="D37" t="b">
-        <v>1</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3014,7 +3018,7 @@
         <v>5</v>
       </c>
       <c r="L37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37">
         <v>5.6</v>
@@ -3028,19 +3032,19 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38">
         <v>78.040000000000006</v>
       </c>
-      <c r="D38" t="b">
-        <v>1</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3052,7 +3056,7 @@
         <v>5</v>
       </c>
       <c r="L38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M38">
         <v>8.4</v>
@@ -3066,31 +3070,31 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39">
         <v>103.52</v>
       </c>
-      <c r="D39" t="b">
-        <v>1</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" t="s">
         <v>93</v>
-      </c>
-      <c r="F39" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39" t="s">
-        <v>94</v>
       </c>
       <c r="M39">
         <v>10.5</v>
@@ -3104,19 +3108,19 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40">
         <v>135.04</v>
       </c>
-      <c r="D40" t="b">
-        <v>1</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3128,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="L40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M40">
         <v>13.8</v>
@@ -3142,19 +3146,19 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41">
         <v>147.06</v>
       </c>
-      <c r="D41" t="b">
-        <v>1</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3166,7 +3170,7 @@
         <v>5</v>
       </c>
       <c r="L41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M41">
         <v>14</v>
@@ -3180,19 +3184,19 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42">
         <v>180.06</v>
       </c>
-      <c r="D42" t="b">
-        <v>1</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3204,7 +3208,7 @@
         <v>5</v>
       </c>
       <c r="L42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M42">
         <v>17</v>
@@ -3218,19 +3222,19 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43">
         <v>210.07</v>
       </c>
-      <c r="D43" t="b">
-        <v>1</v>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3242,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M43">
         <v>22</v>
@@ -3256,19 +3260,19 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44">
         <v>223.56</v>
       </c>
-      <c r="D44" t="b">
-        <v>1</v>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3280,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="L44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M44">
         <v>22.8</v>
@@ -3294,19 +3298,19 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B45">
         <v>231.08</v>
       </c>
-      <c r="D45" t="b">
-        <v>1</v>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3318,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M45">
         <v>23.5</v>
@@ -3332,19 +3336,19 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>280.58</v>
       </c>
-      <c r="D46" t="b">
-        <v>1</v>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3356,7 +3360,7 @@
         <v>5</v>
       </c>
       <c r="L46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M46">
         <v>28</v>
@@ -3370,19 +3374,19 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B47">
         <v>267.38</v>
       </c>
-      <c r="D47" t="b">
-        <v>1</v>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3394,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="L47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M47">
         <v>32</v>
@@ -3408,19 +3412,19 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>343.62</v>
       </c>
-      <c r="D48" t="b">
-        <v>1</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3446,19 +3450,19 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>381.12</v>
       </c>
-      <c r="D49" t="b">
-        <v>1</v>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3470,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="L49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M49">
         <v>43</v>
@@ -3484,19 +3488,19 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B50">
         <v>435.14</v>
       </c>
-      <c r="D50" t="b">
-        <v>1</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3508,7 +3512,7 @@
         <v>5</v>
       </c>
       <c r="L50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M50">
         <v>45.5</v>
@@ -3522,19 +3526,19 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51">
         <v>528.16</v>
       </c>
-      <c r="D51" t="b">
-        <v>1</v>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3546,7 +3550,7 @@
         <v>5</v>
       </c>
       <c r="L51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M51">
         <v>64</v>
@@ -3560,19 +3564,19 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B52">
         <v>664.59</v>
       </c>
-      <c r="D52" t="b">
-        <v>1</v>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3584,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="L52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M52">
         <v>72.5</v>
@@ -3598,19 +3602,19 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B53">
         <v>20.71</v>
       </c>
-      <c r="D53" t="b">
-        <v>1</v>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3622,7 +3626,7 @@
         <v>5</v>
       </c>
       <c r="L53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M53">
         <v>1.8</v>
@@ -3636,19 +3640,19 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B54">
         <v>22.05</v>
       </c>
-      <c r="D54" t="b">
-        <v>1</v>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3660,7 +3664,7 @@
         <v>5</v>
       </c>
       <c r="L54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M54">
         <v>1.9</v>
@@ -3674,19 +3678,19 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55">
         <v>27.31</v>
       </c>
-      <c r="D55" t="b">
-        <v>1</v>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -3698,7 +3702,7 @@
         <v>5</v>
       </c>
       <c r="L55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M55">
         <v>2.7</v>
@@ -3712,19 +3716,19 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56">
         <v>177.29</v>
       </c>
-      <c r="D56" t="b">
-        <v>1</v>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -3736,7 +3740,7 @@
         <v>5</v>
       </c>
       <c r="L56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M56">
         <v>17.3</v>
@@ -3750,19 +3754,19 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57">
         <v>277.01</v>
       </c>
-      <c r="D57" t="b">
-        <v>1</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -3774,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="L57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M57">
         <v>29.4</v>
@@ -3788,19 +3792,19 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B58">
         <v>339.33</v>
       </c>
-      <c r="D58" t="b">
-        <v>1</v>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3812,7 +3816,7 @@
         <v>5</v>
       </c>
       <c r="L58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M58">
         <v>36</v>
@@ -3826,19 +3830,19 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59">
         <v>427.98</v>
       </c>
-      <c r="D59" t="b">
-        <v>1</v>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -3850,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="L59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M59">
         <v>45.5</v>
@@ -3864,19 +3868,19 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B60">
         <v>8.0500000000000007</v>
       </c>
-      <c r="D60" t="b">
-        <v>1</v>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3888,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="L60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M60">
         <v>0.3</v>
@@ -3902,19 +3906,19 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61">
         <v>11.68</v>
       </c>
-      <c r="D61" t="b">
-        <v>1</v>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -3926,7 +3930,7 @@
         <v>5</v>
       </c>
       <c r="L61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M61">
         <v>0.85</v>
@@ -3940,19 +3944,19 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B62">
         <v>23.95</v>
       </c>
-      <c r="D62" t="b">
-        <v>1</v>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -3964,7 +3968,7 @@
         <v>5</v>
       </c>
       <c r="L62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M62">
         <v>1.98</v>
@@ -3978,19 +3982,19 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B63">
         <v>13.02</v>
       </c>
-      <c r="D63" t="b">
-        <v>1</v>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4002,7 +4006,7 @@
         <v>5</v>
       </c>
       <c r="L63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M63">
         <v>1.3</v>
@@ -4016,19 +4020,19 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B64">
         <v>20.69</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4040,7 +4044,7 @@
         <v>5</v>
       </c>
       <c r="L64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M64">
         <v>1.67</v>
@@ -4054,19 +4058,19 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B65">
         <v>21.74</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4078,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="L65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M65">
         <v>1.8</v>
@@ -4092,19 +4096,19 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66">
         <v>26.6</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4116,7 +4120,7 @@
         <v>5</v>
       </c>
       <c r="L66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M66">
         <v>2.54</v>
@@ -4130,19 +4134,19 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67">
         <v>47.04</v>
       </c>
-      <c r="D67" t="b">
-        <v>1</v>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4154,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="L67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M67">
         <v>3.94</v>
@@ -4168,19 +4172,19 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B68">
         <v>64.08</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4192,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="L68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M68">
         <v>6.15</v>
@@ -4206,19 +4210,19 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69">
         <v>66.31</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4230,7 +4234,7 @@
         <v>5</v>
       </c>
       <c r="L69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M69">
         <v>6.35</v>
@@ -4244,19 +4248,19 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B70">
         <v>95.72</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4268,7 +4272,7 @@
         <v>5</v>
       </c>
       <c r="L70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M70">
         <v>9.4</v>
@@ -4282,19 +4286,19 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B71">
         <v>119.06</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
+      <c r="D71">
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4306,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="L71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M71">
         <v>11.25</v>
@@ -4320,19 +4324,19 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B72">
         <v>152.11000000000001</v>
       </c>
-      <c r="D72" t="b">
-        <v>1</v>
+      <c r="D72">
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4344,7 +4348,7 @@
         <v>5</v>
       </c>
       <c r="L72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M72">
         <v>14.3</v>
@@ -4358,19 +4362,19 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B73">
         <v>241.3</v>
       </c>
-      <c r="D73" t="b">
-        <v>1</v>
+      <c r="D73">
+        <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -4382,7 +4386,7 @@
         <v>5</v>
       </c>
       <c r="L73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M73">
         <v>24.5</v>
@@ -4396,19 +4400,19 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B74">
         <v>326.89</v>
       </c>
-      <c r="D74" t="b">
-        <v>1</v>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -4420,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="L74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M74">
         <v>30.8</v>
@@ -4434,19 +4438,19 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75">
         <v>329.71</v>
       </c>
-      <c r="D75" t="b">
-        <v>1</v>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -4458,7 +4462,7 @@
         <v>5</v>
       </c>
       <c r="L75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M75">
         <v>32.700000000000003</v>
@@ -4472,19 +4476,19 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B76">
         <v>401.55</v>
       </c>
-      <c r="D76" t="b">
-        <v>1</v>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -4496,7 +4500,7 @@
         <v>5</v>
       </c>
       <c r="L76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M76">
         <v>39.5</v>
@@ -4510,19 +4514,19 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B77">
         <v>542.24</v>
       </c>
-      <c r="D77" t="b">
-        <v>1</v>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -4534,7 +4538,7 @@
         <v>5</v>
       </c>
       <c r="L77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M77">
         <v>51.2</v>
@@ -4548,19 +4552,19 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B78">
         <v>666.67</v>
       </c>
-      <c r="D78" t="b">
-        <v>1</v>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -4572,7 +4576,7 @@
         <v>5</v>
       </c>
       <c r="L78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M78">
         <v>61.5</v>
@@ -4586,19 +4590,19 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B79">
         <v>705.47</v>
       </c>
-      <c r="D79" t="b">
-        <v>1</v>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -4624,19 +4628,19 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B80">
         <v>18.420000000000002</v>
       </c>
-      <c r="D80" t="b">
-        <v>1</v>
+      <c r="D80">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -4648,7 +4652,7 @@
         <v>5</v>
       </c>
       <c r="L80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M80">
         <v>1.53</v>
@@ -4662,19 +4666,19 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B81">
         <v>22.34</v>
       </c>
-      <c r="D81" t="b">
-        <v>1</v>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -4686,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="L81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M81">
         <v>2.2000000000000002</v>
@@ -4700,19 +4704,19 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B82">
         <v>23.37</v>
       </c>
-      <c r="D82" t="b">
-        <v>1</v>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -4724,7 +4728,7 @@
         <v>5</v>
       </c>
       <c r="L82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M82">
         <v>1.88</v>
@@ -4738,19 +4742,19 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B83">
         <v>30.08</v>
       </c>
-      <c r="D83" t="b">
-        <v>1</v>
+      <c r="D83">
+        <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -4762,7 +4766,7 @@
         <v>5</v>
       </c>
       <c r="L83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M83">
         <v>2.1</v>
@@ -4776,19 +4780,19 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B84">
         <v>29.67</v>
       </c>
-      <c r="D84" t="b">
-        <v>1</v>
+      <c r="D84">
+        <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -4800,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="L84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M84">
         <v>2.6</v>
@@ -4814,19 +4818,19 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B85">
         <v>54.04</v>
       </c>
-      <c r="D85" t="b">
-        <v>1</v>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -4838,7 +4842,7 @@
         <v>5</v>
       </c>
       <c r="L85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M85">
         <v>4.2</v>
@@ -4852,19 +4856,19 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B86">
         <v>81.180000000000007</v>
       </c>
-      <c r="D86" t="b">
-        <v>1</v>
+      <c r="D86">
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -4876,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="L86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M86">
         <v>6.5</v>
@@ -4890,19 +4894,19 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B87">
         <v>119.73</v>
       </c>
-      <c r="D87" t="b">
-        <v>1</v>
+      <c r="D87">
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -4914,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="L87" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M87">
         <v>10</v>
@@ -4928,19 +4932,19 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B88">
         <v>151.78</v>
       </c>
-      <c r="D88" t="b">
-        <v>1</v>
+      <c r="D88">
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -4952,7 +4956,7 @@
         <v>5</v>
       </c>
       <c r="L88" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M88">
         <v>12.1</v>
@@ -4966,19 +4970,19 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89">
         <v>181.77</v>
       </c>
-      <c r="D89" t="b">
-        <v>1</v>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -4990,7 +4994,7 @@
         <v>5</v>
       </c>
       <c r="L89" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M89">
         <v>15.3</v>
@@ -5004,19 +5008,19 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B90">
         <v>244.98</v>
       </c>
-      <c r="D90" t="b">
-        <v>1</v>
+      <c r="D90">
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -5028,7 +5032,7 @@
         <v>5</v>
       </c>
       <c r="L90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M90">
         <v>24.75</v>
@@ -5042,19 +5046,19 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B91">
         <v>243.14</v>
       </c>
-      <c r="D91" t="b">
-        <v>1</v>
+      <c r="D91">
+        <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -5066,7 +5070,7 @@
         <v>5</v>
       </c>
       <c r="L91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M91">
         <v>17.8</v>
@@ -5080,19 +5084,19 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B92">
         <v>283.44</v>
       </c>
-      <c r="D92" t="b">
-        <v>1</v>
+      <c r="D92">
+        <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -5104,7 +5108,7 @@
         <v>5</v>
       </c>
       <c r="L92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M92">
         <v>26</v>
@@ -5118,19 +5122,19 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B93">
         <v>340.64</v>
       </c>
-      <c r="D93" t="b">
-        <v>1</v>
+      <c r="D93">
+        <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -5142,7 +5146,7 @@
         <v>5</v>
       </c>
       <c r="L93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M93">
         <v>29.8</v>
@@ -5156,19 +5160,19 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94">
         <v>381.82</v>
       </c>
-      <c r="D94" t="b">
-        <v>1</v>
+      <c r="D94">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -5180,7 +5184,7 @@
         <v>5</v>
       </c>
       <c r="L94" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M94">
         <v>35</v>
@@ -5194,19 +5198,19 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95">
         <v>55.26</v>
       </c>
-      <c r="D95" t="b">
-        <v>1</v>
+      <c r="D95">
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -5218,7 +5222,7 @@
         <v>5</v>
       </c>
       <c r="L95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M95">
         <v>4.3</v>
@@ -5232,19 +5236,19 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B96">
         <v>77.36</v>
       </c>
-      <c r="D96" t="b">
-        <v>1</v>
+      <c r="D96">
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -5256,7 +5260,7 @@
         <v>5</v>
       </c>
       <c r="L96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M96">
         <v>6.45</v>
@@ -5270,19 +5274,19 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B97">
         <v>169.46</v>
       </c>
-      <c r="D97" t="b">
-        <v>1</v>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -5294,7 +5298,7 @@
         <v>5</v>
       </c>
       <c r="L97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M97">
         <v>16.5</v>
@@ -5308,19 +5312,19 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B98">
         <v>329.71</v>
       </c>
-      <c r="D98" t="b">
-        <v>1</v>
+      <c r="D98">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -5332,7 +5336,7 @@
         <v>5</v>
       </c>
       <c r="L98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M98">
         <v>36.799999999999997</v>
@@ -5346,19 +5350,19 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B99">
         <v>418.13</v>
       </c>
-      <c r="D99" t="b">
-        <v>1</v>
+      <c r="D99">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -5370,7 +5374,7 @@
         <v>5</v>
       </c>
       <c r="L99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M99">
         <v>46.4</v>
@@ -5384,19 +5388,19 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B100">
         <v>552.59</v>
       </c>
-      <c r="D100" t="b">
-        <v>1</v>
+      <c r="D100">
+        <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F100" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -5408,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="L100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M100">
         <v>55.4</v>
@@ -5422,19 +5426,19 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B101">
         <v>21.07</v>
       </c>
-      <c r="D101" t="b">
-        <v>1</v>
+      <c r="D101">
+        <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F101" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -5446,7 +5450,7 @@
         <v>5</v>
       </c>
       <c r="L101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M101">
         <v>2.2000000000000002</v>
@@ -5460,19 +5464,19 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B102">
         <v>44.21</v>
       </c>
-      <c r="D102" t="b">
-        <v>1</v>
+      <c r="D102">
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -5484,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="L102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M102">
         <v>3.35</v>
@@ -5498,19 +5502,19 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B103">
         <v>61.06</v>
       </c>
-      <c r="D103" t="b">
-        <v>1</v>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5522,7 +5526,7 @@
         <v>5</v>
       </c>
       <c r="L103" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M103">
         <v>5.62</v>
@@ -5536,19 +5540,19 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104">
         <v>88.41</v>
       </c>
-      <c r="D104" t="b">
-        <v>1</v>
+      <c r="D104">
+        <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -5560,7 +5564,7 @@
         <v>5</v>
       </c>
       <c r="L104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M104">
         <v>7.9</v>
@@ -5574,19 +5578,19 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B105">
         <v>142.57</v>
       </c>
-      <c r="D105" t="b">
-        <v>1</v>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -5598,7 +5602,7 @@
         <v>5</v>
       </c>
       <c r="L105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M105">
         <v>12.5</v>
@@ -5612,19 +5616,19 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B106">
         <v>217.35</v>
       </c>
-      <c r="D106" t="b">
-        <v>1</v>
+      <c r="D106">
+        <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -5636,7 +5640,7 @@
         <v>5</v>
       </c>
       <c r="L106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M106">
         <v>20</v>
@@ -5650,19 +5654,19 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B107">
         <v>302.08</v>
       </c>
-      <c r="D107" t="b">
-        <v>1</v>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -5674,7 +5678,7 @@
         <v>5</v>
       </c>
       <c r="L107" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M107">
         <v>28.5</v>

--- a/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="211">
   <si>
     <t>522 x 240 x 240</t>
   </si>
@@ -501,12 +501,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>IsNew</t>
-  </si>
-  <si>
-    <t>IsTopBuyed</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -922,6 +916,9 @@
   </si>
   <si>
     <t>Availability</t>
+  </si>
+  <si>
+    <t>DisplayClass</t>
   </si>
 </sst>
 </file>
@@ -1616,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S107"/>
+  <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,66 +1627,63 @@
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" t="s">
-        <v>63</v>
-      </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="R1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1705,26 +1699,26 @@
       <c r="F2" t="s">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>24</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>58</v>
       </c>
+      <c r="Q2">
+        <v>6</v>
+      </c>
       <c r="R2">
-        <v>6</v>
-      </c>
-      <c r="S2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1740,26 +1734,26 @@
       <c r="F3" t="s">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
         <v>55</v>
       </c>
+      <c r="Q3">
+        <v>6</v>
+      </c>
       <c r="R3">
-        <v>6</v>
-      </c>
-      <c r="S3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1775,26 +1769,26 @@
       <c r="F4" t="s">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>24</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
         <v>52</v>
       </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
       <c r="R4">
-        <v>6</v>
-      </c>
-      <c r="S4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1810,26 +1804,26 @@
       <c r="F5" t="s">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J5">
-        <v>24</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" t="s">
         <v>49</v>
       </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
       <c r="R5">
-        <v>6</v>
-      </c>
-      <c r="S5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1845,23 +1839,23 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J6">
-        <v>24</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
       </c>
       <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1877,23 +1871,23 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
       </c>
       <c r="R7">
         <v>12</v>
       </c>
-      <c r="S7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1909,26 +1903,26 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J8">
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
-      </c>
-      <c r="L8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
         <v>42</v>
       </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
       <c r="R8">
-        <v>12</v>
-      </c>
-      <c r="S8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1944,29 +1938,29 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J9">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
         <v>35</v>
       </c>
-      <c r="M9">
+      <c r="L9">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Q9">
+        <v>12</v>
+      </c>
       <c r="R9">
-        <v>12</v>
-      </c>
-      <c r="S9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1982,29 +1976,29 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J10">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>5</v>
-      </c>
-      <c r="L10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
         <v>35</v>
       </c>
-      <c r="M10">
+      <c r="L10">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Q10">
+        <v>12</v>
+      </c>
       <c r="R10">
-        <v>12</v>
-      </c>
-      <c r="S10">
         <v>7.2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -2020,29 +2014,29 @@
       <c r="F11" t="s">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J11">
-        <v>24</v>
-      </c>
-      <c r="K11">
-        <v>5</v>
-      </c>
-      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
         <v>35</v>
       </c>
-      <c r="M11">
+      <c r="L11">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
       <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2058,29 +2052,29 @@
       <c r="F12" t="s">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
       <c r="I12">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J12">
-        <v>24</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
         <v>32</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>3.5</v>
       </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
       <c r="R12">
         <v>12</v>
       </c>
-      <c r="S12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2096,29 +2090,29 @@
       <c r="F13" t="s">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J13">
-        <v>24</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="M13">
+      <c r="L13">
         <v>8.5</v>
       </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
       <c r="R13">
-        <v>12</v>
-      </c>
-      <c r="S13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -2134,29 +2128,29 @@
       <c r="F14" t="s">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14">
+      <c r="L14">
         <v>8.5</v>
       </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
       <c r="R14">
-        <v>12</v>
-      </c>
-      <c r="S14">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2172,29 +2166,29 @@
       <c r="F15" t="s">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="K15">
-        <v>5</v>
-      </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15">
+      <c r="L15">
         <v>8.5</v>
       </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
       <c r="R15">
-        <v>12</v>
-      </c>
-      <c r="S15">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2210,29 +2204,29 @@
       <c r="F16" t="s">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J16">
-        <v>24</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="M16">
+      <c r="L16">
         <v>17</v>
       </c>
+      <c r="Q16">
+        <v>12</v>
+      </c>
       <c r="R16">
-        <v>12</v>
-      </c>
-      <c r="S16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2248,29 +2242,29 @@
       <c r="F17" t="s">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J17">
-        <v>24</v>
-      </c>
-      <c r="K17">
-        <v>5</v>
-      </c>
-      <c r="L17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" t="s">
         <v>18</v>
       </c>
-      <c r="M17">
+      <c r="L17">
         <v>21.4</v>
       </c>
+      <c r="Q17">
+        <v>12</v>
+      </c>
       <c r="R17">
-        <v>12</v>
-      </c>
-      <c r="S17">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2286,29 +2280,29 @@
       <c r="F18" t="s">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
       <c r="I18">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J18">
-        <v>24</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-      <c r="L18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
         <v>15</v>
       </c>
-      <c r="M18">
+      <c r="L18">
         <v>30.5</v>
       </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
       <c r="R18">
-        <v>12</v>
-      </c>
-      <c r="S18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2324,29 +2318,29 @@
       <c r="F19" t="s">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
       <c r="I19">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J19">
-        <v>24</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
         <v>10</v>
       </c>
-      <c r="M19">
+      <c r="L19">
         <v>32.5</v>
       </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
       <c r="R19">
-        <v>12</v>
-      </c>
-      <c r="S19">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2362,29 +2356,29 @@
       <c r="F20" t="s">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="I20">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J20">
-        <v>24</v>
-      </c>
-      <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" t="s">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="L20">
         <v>32.5</v>
       </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
       <c r="R20">
-        <v>12</v>
-      </c>
-      <c r="S20">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2400,29 +2394,29 @@
       <c r="F21" t="s">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
       <c r="I21">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J21">
-        <v>24</v>
-      </c>
-      <c r="K21">
-        <v>5</v>
-      </c>
-      <c r="L21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" t="s">
         <v>7</v>
       </c>
-      <c r="M21">
+      <c r="L21">
         <v>30.6</v>
       </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
       <c r="R21">
-        <v>12</v>
-      </c>
-      <c r="S21">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2438,29 +2432,29 @@
       <c r="F22" t="s">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
       <c r="I22">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J22">
-        <v>24</v>
-      </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
         <v>4</v>
       </c>
-      <c r="M22">
+      <c r="L22">
         <v>36.6</v>
       </c>
+      <c r="Q22">
+        <v>12</v>
+      </c>
       <c r="R22">
-        <v>12</v>
-      </c>
-      <c r="S22">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2476,31 +2470,31 @@
       <c r="F23" t="s">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J23">
-        <v>24</v>
-      </c>
-      <c r="K23">
-        <v>5</v>
-      </c>
-      <c r="L23" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23">
+        <v>5</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <v>60.6</v>
       </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
       <c r="R23">
-        <v>12</v>
-      </c>
-      <c r="S23">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24">
         <v>5.86</v>
@@ -2509,36 +2503,36 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J24">
-        <v>12</v>
-      </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="L24" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24">
+        <v>5</v>
+      </c>
+      <c r="K24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L24">
         <v>0.31</v>
       </c>
+      <c r="Q24">
+        <v>6</v>
+      </c>
       <c r="R24">
-        <v>6</v>
-      </c>
-      <c r="S24">
         <v>1.3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25">
         <v>9.01</v>
@@ -2547,36 +2541,36 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J25">
-        <v>12</v>
-      </c>
-      <c r="K25">
-        <v>5</v>
-      </c>
-      <c r="L25" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25">
         <v>0.66</v>
       </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
       <c r="R25">
-        <v>6</v>
-      </c>
-      <c r="S25">
         <v>3.2</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26">
         <v>7.96</v>
@@ -2585,36 +2579,36 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J26">
-        <v>12</v>
-      </c>
-      <c r="K26">
-        <v>5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26">
         <v>0.75</v>
       </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
       <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26">
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27">
         <v>13.21</v>
@@ -2623,36 +2617,36 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J27">
-        <v>12</v>
-      </c>
-      <c r="K27">
-        <v>5</v>
-      </c>
-      <c r="L27" t="s">
-        <v>82</v>
-      </c>
-      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27">
         <v>1.17</v>
       </c>
+      <c r="Q27">
+        <v>6</v>
+      </c>
       <c r="R27">
-        <v>6</v>
-      </c>
-      <c r="S27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B28">
         <v>20.11</v>
@@ -2661,36 +2655,36 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>12</v>
-      </c>
-      <c r="K28">
-        <v>5</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
-      </c>
-      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="K28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28">
         <v>1.85</v>
       </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
       <c r="R28">
-        <v>6</v>
-      </c>
-      <c r="S28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>10.82</v>
@@ -2699,36 +2693,36 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29">
-        <v>12</v>
-      </c>
-      <c r="K29">
-        <v>5</v>
-      </c>
-      <c r="L29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>82</v>
+      </c>
+      <c r="L29">
         <v>0.61</v>
       </c>
+      <c r="Q29">
+        <v>12</v>
+      </c>
       <c r="R29">
-        <v>12</v>
-      </c>
-      <c r="S29">
         <v>1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>13.49</v>
@@ -2737,36 +2731,36 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30">
-        <v>12</v>
-      </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-      <c r="L30" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>83</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
+      <c r="Q30">
+        <v>12</v>
+      </c>
       <c r="R30">
-        <v>12</v>
-      </c>
-      <c r="S30">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B31">
         <v>16.04</v>
@@ -2775,36 +2769,36 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J31">
-        <v>12</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31" t="s">
-        <v>86</v>
-      </c>
-      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="K31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L31">
         <v>1.3</v>
       </c>
+      <c r="Q31">
+        <v>12</v>
+      </c>
       <c r="R31">
-        <v>12</v>
-      </c>
-      <c r="S31">
         <v>3.3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B32">
         <v>16.350000000000001</v>
@@ -2813,36 +2807,36 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J32">
-        <v>12</v>
-      </c>
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32" t="s">
-        <v>87</v>
-      </c>
-      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>85</v>
+      </c>
+      <c r="L32">
         <v>1.4</v>
       </c>
+      <c r="Q32">
+        <v>12</v>
+      </c>
       <c r="R32">
-        <v>12</v>
-      </c>
-      <c r="S32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33">
         <v>18.899999999999999</v>
@@ -2851,36 +2845,36 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J33">
-        <v>12</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33" t="s">
-        <v>87</v>
-      </c>
-      <c r="M33">
+        <v>5</v>
+      </c>
+      <c r="K33" t="s">
+        <v>85</v>
+      </c>
+      <c r="L33">
         <v>1.7</v>
       </c>
+      <c r="Q33">
+        <v>12</v>
+      </c>
       <c r="R33">
-        <v>12</v>
-      </c>
-      <c r="S33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B34">
         <v>20.25</v>
@@ -2889,36 +2883,36 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J34">
-        <v>12</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="L34" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34">
+        <v>5</v>
+      </c>
+      <c r="K34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34">
         <v>2.2999999999999998</v>
       </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
       <c r="R34">
-        <v>12</v>
-      </c>
-      <c r="S34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B35">
         <v>21.32</v>
@@ -2927,36 +2921,36 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J35">
-        <v>12</v>
-      </c>
-      <c r="K35">
-        <v>5</v>
-      </c>
-      <c r="L35" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="K35" t="s">
+        <v>86</v>
+      </c>
+      <c r="L35">
         <v>2.35</v>
       </c>
+      <c r="Q35">
+        <v>12</v>
+      </c>
       <c r="R35">
-        <v>12</v>
-      </c>
-      <c r="S35">
         <v>7.2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>39.01</v>
@@ -2965,36 +2959,36 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J36">
-        <v>12</v>
-      </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>87</v>
+      </c>
+      <c r="L36">
         <v>3.7</v>
       </c>
+      <c r="Q36">
+        <v>12</v>
+      </c>
       <c r="R36">
         <v>12</v>
       </c>
-      <c r="S36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37">
         <v>55.52</v>
@@ -3003,36 +2997,36 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J37">
-        <v>12</v>
-      </c>
-      <c r="K37">
-        <v>5</v>
-      </c>
-      <c r="L37" t="s">
-        <v>90</v>
-      </c>
-      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
+      <c r="L37">
         <v>5.6</v>
       </c>
+      <c r="Q37">
+        <v>12</v>
+      </c>
       <c r="R37">
-        <v>12</v>
-      </c>
-      <c r="S37">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B38">
         <v>78.040000000000006</v>
@@ -3041,36 +3035,36 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J38">
-        <v>12</v>
-      </c>
-      <c r="K38">
-        <v>5</v>
-      </c>
-      <c r="L38" t="s">
-        <v>91</v>
-      </c>
-      <c r="M38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>89</v>
+      </c>
+      <c r="L38">
         <v>8.4</v>
       </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
       <c r="R38">
-        <v>12</v>
-      </c>
-      <c r="S38">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B39">
         <v>103.52</v>
@@ -3079,36 +3073,36 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J39">
-        <v>12</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-      <c r="L39" t="s">
-        <v>93</v>
-      </c>
-      <c r="M39">
+        <v>5</v>
+      </c>
+      <c r="K39" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39">
         <v>10.5</v>
       </c>
+      <c r="Q39">
+        <v>12</v>
+      </c>
       <c r="R39">
-        <v>12</v>
-      </c>
-      <c r="S39">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B40">
         <v>135.04</v>
@@ -3117,36 +3111,36 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
         <v>92</v>
       </c>
-      <c r="F40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>12</v>
-      </c>
-      <c r="K40">
-        <v>5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>94</v>
-      </c>
-      <c r="M40">
+      <c r="L40">
         <v>13.8</v>
       </c>
+      <c r="Q40">
+        <v>12</v>
+      </c>
       <c r="R40">
-        <v>12</v>
-      </c>
-      <c r="S40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B41">
         <v>147.06</v>
@@ -3155,36 +3149,36 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
         <v>92</v>
       </c>
-      <c r="F41" t="s">
-        <v>92</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>12</v>
-      </c>
-      <c r="K41">
-        <v>5</v>
-      </c>
-      <c r="L41" t="s">
-        <v>94</v>
-      </c>
-      <c r="M41">
+      <c r="L41">
         <v>14</v>
       </c>
+      <c r="Q41">
+        <v>12</v>
+      </c>
       <c r="R41">
-        <v>12</v>
-      </c>
-      <c r="S41">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42">
         <v>180.06</v>
@@ -3193,36 +3187,36 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J42">
-        <v>12</v>
-      </c>
-      <c r="K42">
-        <v>5</v>
-      </c>
-      <c r="L42" t="s">
-        <v>95</v>
-      </c>
-      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="K42" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42">
         <v>17</v>
       </c>
+      <c r="Q42">
+        <v>12</v>
+      </c>
       <c r="R42">
-        <v>12</v>
-      </c>
-      <c r="S42">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43">
         <v>210.07</v>
@@ -3231,36 +3225,36 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J43">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>5</v>
-      </c>
-      <c r="L43" t="s">
-        <v>96</v>
-      </c>
-      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="K43" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43">
         <v>22</v>
       </c>
+      <c r="Q43">
+        <v>12</v>
+      </c>
       <c r="R43">
-        <v>12</v>
-      </c>
-      <c r="S43">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B44">
         <v>223.56</v>
@@ -3269,36 +3263,36 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F44" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J44">
-        <v>12</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="K44" t="s">
+        <v>95</v>
+      </c>
+      <c r="L44">
         <v>22.8</v>
       </c>
+      <c r="Q44">
+        <v>12</v>
+      </c>
       <c r="R44">
-        <v>12</v>
-      </c>
-      <c r="S44">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45">
         <v>231.08</v>
@@ -3307,36 +3301,36 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F45" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J45">
-        <v>12</v>
-      </c>
-      <c r="K45">
-        <v>5</v>
-      </c>
-      <c r="L45" t="s">
-        <v>97</v>
-      </c>
-      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="K45" t="s">
+        <v>95</v>
+      </c>
+      <c r="L45">
         <v>23.5</v>
       </c>
+      <c r="Q45">
+        <v>12</v>
+      </c>
       <c r="R45">
-        <v>12</v>
-      </c>
-      <c r="S45">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B46">
         <v>280.58</v>
@@ -3345,36 +3339,36 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J46">
-        <v>12</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46" t="s">
-        <v>98</v>
-      </c>
-      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L46">
         <v>28</v>
       </c>
+      <c r="Q46">
+        <v>12</v>
+      </c>
       <c r="R46">
-        <v>12</v>
-      </c>
-      <c r="S46">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47">
         <v>267.38</v>
@@ -3383,36 +3377,36 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>12</v>
-      </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-      <c r="L47" t="s">
-        <v>99</v>
-      </c>
-      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="K47" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47">
         <v>32</v>
       </c>
+      <c r="Q47">
+        <v>12</v>
+      </c>
       <c r="R47">
-        <v>12</v>
-      </c>
-      <c r="S47">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48">
         <v>343.62</v>
@@ -3421,36 +3415,36 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J48">
-        <v>12</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-      <c r="L48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" t="s">
         <v>4</v>
       </c>
-      <c r="M48">
+      <c r="L48">
         <v>38</v>
       </c>
+      <c r="Q48">
+        <v>12</v>
+      </c>
       <c r="R48">
-        <v>12</v>
-      </c>
-      <c r="S48">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49">
         <v>381.12</v>
@@ -3459,36 +3453,36 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J49">
-        <v>12</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-      <c r="L49" t="s">
-        <v>100</v>
-      </c>
-      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49">
         <v>43</v>
       </c>
+      <c r="Q49">
+        <v>12</v>
+      </c>
       <c r="R49">
-        <v>12</v>
-      </c>
-      <c r="S49">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50">
         <v>435.14</v>
@@ -3497,36 +3491,36 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J50">
-        <v>12</v>
-      </c>
-      <c r="K50">
-        <v>5</v>
-      </c>
-      <c r="L50" t="s">
-        <v>101</v>
-      </c>
-      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="K50" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50">
         <v>45.5</v>
       </c>
+      <c r="Q50">
+        <v>12</v>
+      </c>
       <c r="R50">
-        <v>12</v>
-      </c>
-      <c r="S50">
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51">
         <v>528.16</v>
@@ -3535,36 +3529,36 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J51">
-        <v>12</v>
-      </c>
-      <c r="K51">
-        <v>5</v>
-      </c>
-      <c r="L51" t="s">
-        <v>102</v>
-      </c>
-      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="K51" t="s">
+        <v>100</v>
+      </c>
+      <c r="L51">
         <v>64</v>
       </c>
+      <c r="Q51">
+        <v>12</v>
+      </c>
       <c r="R51">
-        <v>12</v>
-      </c>
-      <c r="S51">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52">
         <v>664.59</v>
@@ -3573,36 +3567,36 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J52">
-        <v>12</v>
-      </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-      <c r="L52" t="s">
-        <v>103</v>
-      </c>
-      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="K52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L52">
         <v>72.5</v>
       </c>
+      <c r="Q52">
+        <v>12</v>
+      </c>
       <c r="R52">
-        <v>12</v>
-      </c>
-      <c r="S52">
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53">
         <v>20.71</v>
@@ -3611,36 +3605,36 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F53" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J53">
-        <v>12</v>
-      </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-      <c r="L53" t="s">
-        <v>87</v>
-      </c>
-      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="K53" t="s">
+        <v>85</v>
+      </c>
+      <c r="L53">
         <v>1.8</v>
       </c>
+      <c r="Q53">
+        <v>12</v>
+      </c>
       <c r="R53">
-        <v>12</v>
-      </c>
-      <c r="S53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54">
         <v>22.05</v>
@@ -3649,36 +3643,36 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J54">
-        <v>12</v>
-      </c>
-      <c r="K54">
-        <v>5</v>
-      </c>
-      <c r="L54" t="s">
-        <v>104</v>
-      </c>
-      <c r="M54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>102</v>
+      </c>
+      <c r="L54">
         <v>1.9</v>
       </c>
+      <c r="Q54">
+        <v>12</v>
+      </c>
       <c r="R54">
-        <v>12</v>
-      </c>
-      <c r="S54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55">
         <v>27.31</v>
@@ -3687,36 +3681,36 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J55">
-        <v>12</v>
-      </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-      <c r="L55" t="s">
-        <v>105</v>
-      </c>
-      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>103</v>
+      </c>
+      <c r="L55">
         <v>2.7</v>
       </c>
+      <c r="Q55">
+        <v>12</v>
+      </c>
       <c r="R55">
-        <v>12</v>
-      </c>
-      <c r="S55">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56">
         <v>177.29</v>
@@ -3725,36 +3719,36 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J56">
-        <v>12</v>
-      </c>
-      <c r="K56">
-        <v>5</v>
-      </c>
-      <c r="L56" t="s">
-        <v>106</v>
-      </c>
-      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>104</v>
+      </c>
+      <c r="L56">
         <v>17.3</v>
       </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
       <c r="R56">
-        <v>12</v>
-      </c>
-      <c r="S56">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57">
         <v>277.01</v>
@@ -3763,36 +3757,36 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J57">
-        <v>12</v>
-      </c>
-      <c r="K57">
-        <v>5</v>
-      </c>
-      <c r="L57" t="s">
-        <v>107</v>
-      </c>
-      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>105</v>
+      </c>
+      <c r="L57">
         <v>29.4</v>
       </c>
+      <c r="Q57">
+        <v>12</v>
+      </c>
       <c r="R57">
-        <v>12</v>
-      </c>
-      <c r="S57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58">
         <v>339.33</v>
@@ -3801,36 +3795,36 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J58">
-        <v>12</v>
-      </c>
-      <c r="K58">
-        <v>5</v>
-      </c>
-      <c r="L58" t="s">
-        <v>108</v>
-      </c>
-      <c r="M58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58">
         <v>36</v>
       </c>
+      <c r="Q58">
+        <v>12</v>
+      </c>
       <c r="R58">
-        <v>12</v>
-      </c>
-      <c r="S58">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B59">
         <v>427.98</v>
@@ -3839,36 +3833,36 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J59">
-        <v>12</v>
-      </c>
-      <c r="K59">
-        <v>5</v>
-      </c>
-      <c r="L59" t="s">
-        <v>109</v>
-      </c>
-      <c r="M59">
+        <v>5</v>
+      </c>
+      <c r="K59" t="s">
+        <v>107</v>
+      </c>
+      <c r="L59">
         <v>45.5</v>
       </c>
+      <c r="Q59">
+        <v>12</v>
+      </c>
       <c r="R59">
-        <v>12</v>
-      </c>
-      <c r="S59">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B60">
         <v>8.0500000000000007</v>
@@ -3877,36 +3871,36 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F60" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J60">
-        <v>12</v>
-      </c>
-      <c r="K60">
-        <v>5</v>
-      </c>
-      <c r="L60" t="s">
-        <v>79</v>
-      </c>
-      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="K60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L60">
         <v>0.3</v>
       </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
       <c r="R60">
-        <v>6</v>
-      </c>
-      <c r="S60">
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B61">
         <v>11.68</v>
@@ -3915,36 +3909,36 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F61" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J61">
-        <v>12</v>
-      </c>
-      <c r="K61">
-        <v>5</v>
-      </c>
-      <c r="L61" t="s">
-        <v>194</v>
-      </c>
-      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="K61" t="s">
+        <v>192</v>
+      </c>
+      <c r="L61">
         <v>0.85</v>
       </c>
+      <c r="Q61">
+        <v>6</v>
+      </c>
       <c r="R61">
-        <v>6</v>
-      </c>
-      <c r="S61">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B62">
         <v>23.95</v>
@@ -3953,36 +3947,36 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F62" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J62">
-        <v>12</v>
-      </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-      <c r="L62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62">
         <v>1.98</v>
       </c>
+      <c r="Q62">
+        <v>6</v>
+      </c>
       <c r="R62">
-        <v>6</v>
-      </c>
-      <c r="S62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B63">
         <v>13.02</v>
@@ -3991,36 +3985,36 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F63" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J63">
-        <v>12</v>
-      </c>
-      <c r="K63">
-        <v>5</v>
-      </c>
-      <c r="L63" t="s">
-        <v>86</v>
-      </c>
-      <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="K63" t="s">
+        <v>84</v>
+      </c>
+      <c r="L63">
         <v>1.3</v>
       </c>
+      <c r="Q63">
+        <v>12</v>
+      </c>
       <c r="R63">
-        <v>12</v>
-      </c>
-      <c r="S63">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B64">
         <v>20.69</v>
@@ -4029,36 +4023,36 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F64" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J64">
-        <v>12</v>
-      </c>
-      <c r="K64">
-        <v>5</v>
-      </c>
-      <c r="L64" t="s">
-        <v>87</v>
-      </c>
-      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="K64" t="s">
+        <v>85</v>
+      </c>
+      <c r="L64">
         <v>1.67</v>
       </c>
+      <c r="Q64">
+        <v>12</v>
+      </c>
       <c r="R64">
-        <v>12</v>
-      </c>
-      <c r="S64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B65">
         <v>21.74</v>
@@ -4067,36 +4061,36 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F65" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J65">
-        <v>12</v>
-      </c>
-      <c r="K65">
-        <v>5</v>
-      </c>
-      <c r="L65" t="s">
-        <v>87</v>
-      </c>
-      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="K65" t="s">
+        <v>85</v>
+      </c>
+      <c r="L65">
         <v>1.8</v>
       </c>
+      <c r="Q65">
+        <v>12</v>
+      </c>
       <c r="R65">
-        <v>12</v>
-      </c>
-      <c r="S65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66">
         <v>26.6</v>
@@ -4105,36 +4099,36 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F66" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J66">
-        <v>12</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66" t="s">
-        <v>88</v>
-      </c>
-      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="K66" t="s">
+        <v>86</v>
+      </c>
+      <c r="L66">
         <v>2.54</v>
       </c>
+      <c r="Q66">
+        <v>12</v>
+      </c>
       <c r="R66">
-        <v>12</v>
-      </c>
-      <c r="S66">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B67">
         <v>47.04</v>
@@ -4143,36 +4137,36 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F67" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J67">
-        <v>12</v>
-      </c>
-      <c r="K67">
-        <v>5</v>
-      </c>
-      <c r="L67" t="s">
-        <v>89</v>
-      </c>
-      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>87</v>
+      </c>
+      <c r="L67">
         <v>3.94</v>
       </c>
+      <c r="Q67">
+        <v>12</v>
+      </c>
       <c r="R67">
         <v>12</v>
       </c>
-      <c r="S67">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B68">
         <v>64.08</v>
@@ -4181,36 +4175,36 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F68" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J68">
-        <v>12</v>
-      </c>
-      <c r="K68">
-        <v>5</v>
-      </c>
-      <c r="L68" t="s">
-        <v>90</v>
-      </c>
-      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="K68" t="s">
+        <v>88</v>
+      </c>
+      <c r="L68">
         <v>6.15</v>
       </c>
+      <c r="Q68">
+        <v>12</v>
+      </c>
       <c r="R68">
-        <v>12</v>
-      </c>
-      <c r="S68">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B69">
         <v>66.31</v>
@@ -4219,36 +4213,36 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J69">
-        <v>12</v>
-      </c>
-      <c r="K69">
-        <v>5</v>
-      </c>
-      <c r="L69" t="s">
-        <v>90</v>
-      </c>
-      <c r="M69">
+        <v>5</v>
+      </c>
+      <c r="K69" t="s">
+        <v>88</v>
+      </c>
+      <c r="L69">
         <v>6.35</v>
       </c>
+      <c r="Q69">
+        <v>12</v>
+      </c>
       <c r="R69">
-        <v>12</v>
-      </c>
-      <c r="S69">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70">
         <v>95.72</v>
@@ -4257,36 +4251,36 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F70" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J70">
-        <v>12</v>
-      </c>
-      <c r="K70">
-        <v>5</v>
-      </c>
-      <c r="L70" t="s">
-        <v>91</v>
-      </c>
-      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="K70" t="s">
+        <v>89</v>
+      </c>
+      <c r="L70">
         <v>9.4</v>
       </c>
+      <c r="Q70">
+        <v>12</v>
+      </c>
       <c r="R70">
-        <v>12</v>
-      </c>
-      <c r="S70">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B71">
         <v>119.06</v>
@@ -4295,36 +4289,36 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F71" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J71">
-        <v>12</v>
-      </c>
-      <c r="K71">
-        <v>5</v>
-      </c>
-      <c r="L71" t="s">
-        <v>93</v>
-      </c>
-      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="K71" t="s">
+        <v>91</v>
+      </c>
+      <c r="L71">
         <v>11.25</v>
       </c>
+      <c r="Q71">
+        <v>12</v>
+      </c>
       <c r="R71">
-        <v>12</v>
-      </c>
-      <c r="S71">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72">
         <v>152.11000000000001</v>
@@ -4333,36 +4327,36 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J72">
-        <v>12</v>
-      </c>
-      <c r="K72">
-        <v>5</v>
-      </c>
-      <c r="L72" t="s">
-        <v>94</v>
-      </c>
-      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="K72" t="s">
+        <v>92</v>
+      </c>
+      <c r="L72">
         <v>14.3</v>
       </c>
+      <c r="Q72">
+        <v>12</v>
+      </c>
       <c r="R72">
-        <v>12</v>
-      </c>
-      <c r="S72">
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B73">
         <v>241.3</v>
@@ -4371,36 +4365,36 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F73" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J73">
-        <v>12</v>
-      </c>
-      <c r="K73">
-        <v>5</v>
-      </c>
-      <c r="L73" t="s">
-        <v>96</v>
-      </c>
-      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="K73" t="s">
+        <v>94</v>
+      </c>
+      <c r="L73">
         <v>24.5</v>
       </c>
+      <c r="Q73">
+        <v>12</v>
+      </c>
       <c r="R73">
-        <v>12</v>
-      </c>
-      <c r="S73">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>326.89</v>
@@ -4409,36 +4403,36 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F74" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J74">
-        <v>12</v>
-      </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-      <c r="L74" t="s">
-        <v>195</v>
-      </c>
-      <c r="M74">
+        <v>5</v>
+      </c>
+      <c r="K74" t="s">
+        <v>193</v>
+      </c>
+      <c r="L74">
         <v>30.8</v>
       </c>
+      <c r="Q74">
+        <v>12</v>
+      </c>
       <c r="R74">
-        <v>12</v>
-      </c>
-      <c r="S74">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75">
         <v>329.71</v>
@@ -4447,36 +4441,36 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J75">
-        <v>12</v>
-      </c>
-      <c r="K75">
-        <v>5</v>
-      </c>
-      <c r="L75" t="s">
-        <v>195</v>
-      </c>
-      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="K75" t="s">
+        <v>193</v>
+      </c>
+      <c r="L75">
         <v>32.700000000000003</v>
       </c>
+      <c r="Q75">
+        <v>12</v>
+      </c>
       <c r="R75">
-        <v>12</v>
-      </c>
-      <c r="S75">
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B76">
         <v>401.55</v>
@@ -4485,36 +4479,36 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J76">
-        <v>12</v>
-      </c>
-      <c r="K76">
-        <v>5</v>
-      </c>
-      <c r="L76" t="s">
-        <v>196</v>
-      </c>
-      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="K76" t="s">
+        <v>194</v>
+      </c>
+      <c r="L76">
         <v>39.5</v>
       </c>
+      <c r="Q76">
+        <v>12</v>
+      </c>
       <c r="R76">
-        <v>12</v>
-      </c>
-      <c r="S76">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77">
         <v>542.24</v>
@@ -4523,36 +4517,36 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J77">
-        <v>12</v>
-      </c>
-      <c r="K77">
-        <v>5</v>
-      </c>
-      <c r="L77" t="s">
-        <v>197</v>
-      </c>
-      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="K77" t="s">
+        <v>195</v>
+      </c>
+      <c r="L77">
         <v>51.2</v>
       </c>
+      <c r="Q77">
+        <v>12</v>
+      </c>
       <c r="R77">
-        <v>12</v>
-      </c>
-      <c r="S77">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B78">
         <v>666.67</v>
@@ -4561,36 +4555,36 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F78" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J78">
-        <v>12</v>
-      </c>
-      <c r="K78">
-        <v>5</v>
-      </c>
-      <c r="L78" t="s">
-        <v>198</v>
-      </c>
-      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="K78" t="s">
+        <v>196</v>
+      </c>
+      <c r="L78">
         <v>61.5</v>
       </c>
+      <c r="Q78">
+        <v>12</v>
+      </c>
       <c r="R78">
-        <v>12</v>
-      </c>
-      <c r="S78">
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79">
         <v>705.47</v>
@@ -4599,36 +4593,36 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J79">
-        <v>12</v>
-      </c>
-      <c r="K79">
-        <v>5</v>
-      </c>
-      <c r="L79" t="s">
-        <v>0</v>
-      </c>
-      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="K79" t="s">
+        <v>0</v>
+      </c>
+      <c r="L79">
         <v>72.5</v>
       </c>
+      <c r="Q79">
+        <v>12</v>
+      </c>
       <c r="R79">
-        <v>12</v>
-      </c>
-      <c r="S79">
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80">
         <v>18.420000000000002</v>
@@ -4637,36 +4631,36 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F80" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J80">
-        <v>12</v>
-      </c>
-      <c r="K80">
-        <v>5</v>
-      </c>
-      <c r="L80" t="s">
-        <v>87</v>
-      </c>
-      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>85</v>
+      </c>
+      <c r="L80">
         <v>1.53</v>
       </c>
+      <c r="Q80">
+        <v>12</v>
+      </c>
       <c r="R80">
-        <v>12</v>
-      </c>
-      <c r="S80">
         <v>4.5</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B81">
         <v>22.34</v>
@@ -4675,36 +4669,36 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F81" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J81">
-        <v>12</v>
-      </c>
-      <c r="K81">
-        <v>5</v>
-      </c>
-      <c r="L81" t="s">
-        <v>105</v>
-      </c>
-      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="K81" t="s">
+        <v>103</v>
+      </c>
+      <c r="L81">
         <v>2.2000000000000002</v>
       </c>
+      <c r="Q81">
+        <v>12</v>
+      </c>
       <c r="R81">
-        <v>12</v>
-      </c>
-      <c r="S81">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B82">
         <v>23.37</v>
@@ -4713,36 +4707,36 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F82" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J82">
-        <v>12</v>
-      </c>
-      <c r="K82">
-        <v>5</v>
-      </c>
-      <c r="L82" t="s">
-        <v>87</v>
-      </c>
-      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="K82" t="s">
+        <v>85</v>
+      </c>
+      <c r="L82">
         <v>1.88</v>
       </c>
+      <c r="Q82">
+        <v>12</v>
+      </c>
       <c r="R82">
-        <v>12</v>
-      </c>
-      <c r="S82">
         <v>5.8</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83">
         <v>30.08</v>
@@ -4751,36 +4745,36 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J83">
-        <v>12</v>
-      </c>
-      <c r="K83">
-        <v>5</v>
-      </c>
-      <c r="L83" t="s">
-        <v>104</v>
-      </c>
-      <c r="M83">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>102</v>
+      </c>
+      <c r="L83">
         <v>2.1</v>
       </c>
+      <c r="Q83">
+        <v>12</v>
+      </c>
       <c r="R83">
-        <v>12</v>
-      </c>
-      <c r="S83">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B84">
         <v>29.67</v>
@@ -4789,36 +4783,36 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J84">
-        <v>12</v>
-      </c>
-      <c r="K84">
-        <v>5</v>
-      </c>
-      <c r="L84" t="s">
-        <v>105</v>
-      </c>
-      <c r="M84">
+        <v>5</v>
+      </c>
+      <c r="K84" t="s">
+        <v>103</v>
+      </c>
+      <c r="L84">
         <v>2.6</v>
       </c>
+      <c r="Q84">
+        <v>12</v>
+      </c>
       <c r="R84">
-        <v>12</v>
-      </c>
-      <c r="S84">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>54.04</v>
@@ -4827,36 +4821,36 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F85" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J85">
-        <v>12</v>
-      </c>
-      <c r="K85">
-        <v>5</v>
-      </c>
-      <c r="L85" t="s">
-        <v>89</v>
-      </c>
-      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>87</v>
+      </c>
+      <c r="L85">
         <v>4.2</v>
       </c>
+      <c r="Q85">
+        <v>12</v>
+      </c>
       <c r="R85">
-        <v>12</v>
-      </c>
-      <c r="S85">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86">
         <v>81.180000000000007</v>
@@ -4865,36 +4859,36 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F86" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J86">
-        <v>12</v>
-      </c>
-      <c r="K86">
-        <v>5</v>
-      </c>
-      <c r="L86" t="s">
-        <v>90</v>
-      </c>
-      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="K86" t="s">
+        <v>88</v>
+      </c>
+      <c r="L86">
         <v>6.5</v>
       </c>
+      <c r="Q86">
+        <v>12</v>
+      </c>
       <c r="R86">
-        <v>12</v>
-      </c>
-      <c r="S86">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B87">
         <v>119.73</v>
@@ -4903,36 +4897,36 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F87" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J87">
-        <v>12</v>
-      </c>
-      <c r="K87">
-        <v>5</v>
-      </c>
-      <c r="L87" t="s">
-        <v>91</v>
-      </c>
-      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="K87" t="s">
+        <v>89</v>
+      </c>
+      <c r="L87">
         <v>10</v>
       </c>
+      <c r="Q87">
+        <v>12</v>
+      </c>
       <c r="R87">
-        <v>12</v>
-      </c>
-      <c r="S87">
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B88">
         <v>151.78</v>
@@ -4941,36 +4935,36 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F88" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J88">
-        <v>12</v>
-      </c>
-      <c r="K88">
-        <v>5</v>
-      </c>
-      <c r="L88" t="s">
-        <v>93</v>
-      </c>
-      <c r="M88">
+        <v>5</v>
+      </c>
+      <c r="K88" t="s">
+        <v>91</v>
+      </c>
+      <c r="L88">
         <v>12.1</v>
       </c>
+      <c r="Q88">
+        <v>12</v>
+      </c>
       <c r="R88">
-        <v>12</v>
-      </c>
-      <c r="S88">
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B89">
         <v>181.77</v>
@@ -4979,36 +4973,36 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J89">
-        <v>12</v>
-      </c>
-      <c r="K89">
-        <v>5</v>
-      </c>
-      <c r="L89" t="s">
-        <v>94</v>
-      </c>
-      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="K89" t="s">
+        <v>92</v>
+      </c>
+      <c r="L89">
         <v>15.3</v>
       </c>
+      <c r="Q89">
+        <v>12</v>
+      </c>
       <c r="R89">
-        <v>12</v>
-      </c>
-      <c r="S89">
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B90">
         <v>244.98</v>
@@ -5017,36 +5011,36 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F90" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J90">
-        <v>12</v>
-      </c>
-      <c r="K90">
-        <v>5</v>
-      </c>
-      <c r="L90" t="s">
-        <v>96</v>
-      </c>
-      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="K90" t="s">
+        <v>94</v>
+      </c>
+      <c r="L90">
         <v>24.75</v>
       </c>
+      <c r="Q90">
+        <v>12</v>
+      </c>
       <c r="R90">
-        <v>12</v>
-      </c>
-      <c r="S90">
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B91">
         <v>243.14</v>
@@ -5055,36 +5049,36 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F91" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J91">
-        <v>12</v>
-      </c>
-      <c r="K91">
-        <v>5</v>
-      </c>
-      <c r="L91" t="s">
-        <v>199</v>
-      </c>
-      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="K91" t="s">
+        <v>197</v>
+      </c>
+      <c r="L91">
         <v>17.8</v>
       </c>
+      <c r="Q91">
+        <v>12</v>
+      </c>
       <c r="R91">
-        <v>12</v>
-      </c>
-      <c r="S91">
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92">
         <v>283.44</v>
@@ -5093,36 +5087,36 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F92" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J92">
-        <v>12</v>
-      </c>
-      <c r="K92">
-        <v>5</v>
-      </c>
-      <c r="L92" t="s">
-        <v>200</v>
-      </c>
-      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="K92" t="s">
+        <v>198</v>
+      </c>
+      <c r="L92">
         <v>26</v>
       </c>
+      <c r="Q92">
+        <v>12</v>
+      </c>
       <c r="R92">
-        <v>12</v>
-      </c>
-      <c r="S92">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B93">
         <v>340.64</v>
@@ -5131,36 +5125,36 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F93" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J93">
-        <v>12</v>
-      </c>
-      <c r="K93">
-        <v>5</v>
-      </c>
-      <c r="L93" t="s">
-        <v>201</v>
-      </c>
-      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="K93" t="s">
+        <v>199</v>
+      </c>
+      <c r="L93">
         <v>29.8</v>
       </c>
+      <c r="Q93">
+        <v>12</v>
+      </c>
       <c r="R93">
-        <v>12</v>
-      </c>
-      <c r="S93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94">
         <v>381.82</v>
@@ -5169,36 +5163,36 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F94" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J94">
-        <v>12</v>
-      </c>
-      <c r="K94">
-        <v>5</v>
-      </c>
-      <c r="L94" t="s">
-        <v>202</v>
-      </c>
-      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="K94" t="s">
+        <v>200</v>
+      </c>
+      <c r="L94">
         <v>35</v>
       </c>
+      <c r="Q94">
+        <v>12</v>
+      </c>
       <c r="R94">
-        <v>12</v>
-      </c>
-      <c r="S94">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B95">
         <v>55.26</v>
@@ -5207,36 +5201,36 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F95" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J95">
-        <v>12</v>
-      </c>
-      <c r="K95">
-        <v>5</v>
-      </c>
-      <c r="L95" t="s">
-        <v>89</v>
-      </c>
-      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="K95" t="s">
+        <v>87</v>
+      </c>
+      <c r="L95">
         <v>4.3</v>
       </c>
+      <c r="Q95">
+        <v>12</v>
+      </c>
       <c r="R95">
         <v>12</v>
       </c>
-      <c r="S95">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B96">
         <v>77.36</v>
@@ -5245,36 +5239,36 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J96">
-        <v>12</v>
-      </c>
-      <c r="K96">
-        <v>5</v>
-      </c>
-      <c r="L96" t="s">
-        <v>90</v>
-      </c>
-      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>88</v>
+      </c>
+      <c r="L96">
         <v>6.45</v>
       </c>
+      <c r="Q96">
+        <v>12</v>
+      </c>
       <c r="R96">
-        <v>12</v>
-      </c>
-      <c r="S96">
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B97">
         <v>169.46</v>
@@ -5283,36 +5277,36 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F97" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J97">
-        <v>12</v>
-      </c>
-      <c r="K97">
-        <v>5</v>
-      </c>
-      <c r="L97" t="s">
-        <v>94</v>
-      </c>
-      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="K97" t="s">
+        <v>92</v>
+      </c>
+      <c r="L97">
         <v>16.5</v>
       </c>
+      <c r="Q97">
+        <v>12</v>
+      </c>
       <c r="R97">
-        <v>12</v>
-      </c>
-      <c r="S97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B98">
         <v>329.71</v>
@@ -5321,36 +5315,36 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J98">
-        <v>12</v>
-      </c>
-      <c r="K98">
-        <v>5</v>
-      </c>
-      <c r="L98" t="s">
-        <v>203</v>
-      </c>
-      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="K98" t="s">
+        <v>201</v>
+      </c>
+      <c r="L98">
         <v>36.799999999999997</v>
       </c>
+      <c r="Q98">
+        <v>12</v>
+      </c>
       <c r="R98">
-        <v>12</v>
-      </c>
-      <c r="S98">
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B99">
         <v>418.13</v>
@@ -5359,36 +5353,36 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F99" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J99">
-        <v>12</v>
-      </c>
-      <c r="K99">
-        <v>5</v>
-      </c>
-      <c r="L99" t="s">
-        <v>204</v>
-      </c>
-      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="K99" t="s">
+        <v>202</v>
+      </c>
+      <c r="L99">
         <v>46.4</v>
       </c>
+      <c r="Q99">
+        <v>12</v>
+      </c>
       <c r="R99">
-        <v>12</v>
-      </c>
-      <c r="S99">
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B100">
         <v>552.59</v>
@@ -5397,36 +5391,36 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F100" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J100">
-        <v>12</v>
-      </c>
-      <c r="K100">
-        <v>5</v>
-      </c>
-      <c r="L100" t="s">
-        <v>205</v>
-      </c>
-      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="K100" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100">
         <v>55.4</v>
       </c>
+      <c r="Q100">
+        <v>12</v>
+      </c>
       <c r="R100">
-        <v>12</v>
-      </c>
-      <c r="S100">
         <v>155</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B101">
         <v>21.07</v>
@@ -5435,36 +5429,36 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F101" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J101">
-        <v>12</v>
-      </c>
-      <c r="K101">
-        <v>5</v>
-      </c>
-      <c r="L101" t="s">
-        <v>206</v>
-      </c>
-      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="K101" t="s">
+        <v>204</v>
+      </c>
+      <c r="L101">
         <v>2.2000000000000002</v>
       </c>
+      <c r="Q101">
+        <v>12</v>
+      </c>
       <c r="R101">
-        <v>12</v>
-      </c>
-      <c r="S101">
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B102">
         <v>44.21</v>
@@ -5473,36 +5467,36 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F102" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J102">
-        <v>12</v>
-      </c>
-      <c r="K102">
-        <v>5</v>
-      </c>
-      <c r="L102" t="s">
-        <v>207</v>
-      </c>
-      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="K102" t="s">
+        <v>205</v>
+      </c>
+      <c r="L102">
         <v>3.35</v>
       </c>
+      <c r="Q102">
+        <v>12</v>
+      </c>
       <c r="R102">
         <v>12</v>
       </c>
-      <c r="S102">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B103">
         <v>61.06</v>
@@ -5511,36 +5505,36 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F103" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J103">
-        <v>12</v>
-      </c>
-      <c r="K103">
-        <v>5</v>
-      </c>
-      <c r="L103" t="s">
-        <v>90</v>
-      </c>
-      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="K103" t="s">
+        <v>88</v>
+      </c>
+      <c r="L103">
         <v>5.62</v>
       </c>
+      <c r="Q103">
+        <v>12</v>
+      </c>
       <c r="R103">
-        <v>12</v>
-      </c>
-      <c r="S103">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104">
         <v>88.41</v>
@@ -5549,36 +5543,36 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F104" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J104">
-        <v>12</v>
-      </c>
-      <c r="K104">
-        <v>5</v>
-      </c>
-      <c r="L104" t="s">
-        <v>208</v>
-      </c>
-      <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="K104" t="s">
+        <v>206</v>
+      </c>
+      <c r="L104">
         <v>7.9</v>
       </c>
+      <c r="Q104">
+        <v>12</v>
+      </c>
       <c r="R104">
-        <v>12</v>
-      </c>
-      <c r="S104">
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B105">
         <v>142.57</v>
@@ -5587,36 +5581,36 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J105">
-        <v>12</v>
-      </c>
-      <c r="K105">
-        <v>5</v>
-      </c>
-      <c r="L105" t="s">
-        <v>94</v>
-      </c>
-      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>92</v>
+      </c>
+      <c r="L105">
         <v>12.5</v>
       </c>
+      <c r="Q105">
+        <v>12</v>
+      </c>
       <c r="R105">
-        <v>12</v>
-      </c>
-      <c r="S105">
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B106">
         <v>217.35</v>
@@ -5625,36 +5619,36 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J106">
-        <v>12</v>
-      </c>
-      <c r="K106">
-        <v>5</v>
-      </c>
-      <c r="L106" t="s">
-        <v>96</v>
-      </c>
-      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="K106" t="s">
+        <v>94</v>
+      </c>
+      <c r="L106">
         <v>20</v>
       </c>
+      <c r="Q106">
+        <v>12</v>
+      </c>
       <c r="R106">
-        <v>12</v>
-      </c>
-      <c r="S106">
         <v>65</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B107">
         <v>302.08</v>
@@ -5663,30 +5657,30 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J107">
-        <v>12</v>
-      </c>
-      <c r="K107">
-        <v>5</v>
-      </c>
-      <c r="L107" t="s">
-        <v>209</v>
-      </c>
-      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="K107" t="s">
+        <v>207</v>
+      </c>
+      <c r="L107">
         <v>28.5</v>
       </c>
+      <c r="Q107">
+        <v>12</v>
+      </c>
       <c r="R107">
-        <v>12</v>
-      </c>
-      <c r="S107">
         <v>100</v>
       </c>
     </row>

--- a/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/Batterry.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Battery" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -912,13 +912,13 @@
     <t>329 x 172 x 215</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>Availability</t>
   </si>
   <si>
     <t>DisplayClass</t>
+  </si>
+  <si>
+    <t>B.B. Battery</t>
   </si>
 </sst>
 </file>
@@ -1615,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,6 +1625,7 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1638,7 +1639,7 @@
         <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s">
         <v>72</v>
@@ -1647,7 +1648,7 @@
         <v>71</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H1" t="s">
         <v>70</v>
@@ -3871,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -3909,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -3947,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3985,10 +3986,10 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -4023,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F64" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -4061,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -4099,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -4137,10 +4138,10 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -4175,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -4213,10 +4214,10 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -4251,10 +4252,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -4289,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -4327,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -4365,10 +4366,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -4403,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F74" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4441,10 +4442,10 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -4479,10 +4480,10 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -4517,10 +4518,10 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F77" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4555,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4593,10 +4594,10 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -4631,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4669,10 +4670,10 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F81" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -4707,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F82" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4745,10 +4746,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4783,10 +4784,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4821,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4859,10 +4860,10 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -4897,10 +4898,10 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F87" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4935,10 +4936,10 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -4973,10 +4974,10 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -5011,10 +5012,10 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -5049,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -5087,10 +5088,10 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5125,10 +5126,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -5163,10 +5164,10 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F94" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -5201,10 +5202,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5239,10 +5240,10 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5277,10 +5278,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F97" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5315,10 +5316,10 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F98" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5353,10 +5354,10 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F99" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -5391,10 +5392,10 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F100" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5429,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F101" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -5467,10 +5468,10 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5505,10 +5506,10 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F103" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5543,10 +5544,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5581,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -5619,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -5657,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H107">
         <v>0</v>
